--- a/Mews VP RevOps Case Study 7.25.xlsx
+++ b/Mews VP RevOps Case Study 7.25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477A6895-13C2-464D-9F9F-7E4F99179C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB90044D-8AF7-7340-8CBC-4017A2777EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="1" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast Model A" sheetId="11" r:id="rId1"/>
@@ -1917,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8240B7C1-4149-E040-AA41-4A5AD60624FA}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2448,9 +2448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA162ADF-BF2B-DD4D-BB4B-51A2824293D5}">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2597,11 +2595,11 @@
         <v>0.2</v>
       </c>
       <c r="Q2" s="25">
-        <f t="shared" ref="Q2:Q31" si="0">SUM(L2:O2)</f>
-        <v>0.1</v>
+        <f>SUM(L2:P2)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="R2" s="26" t="str">
-        <f t="shared" ref="R2:R33" si="1">IF(Q2&gt;60%,"Strong ",IF(Q2&gt;40%,"Moderate ",IF(Q2&lt;40.1%,"Weak ")))</f>
+        <f t="shared" ref="R2:R33" si="0">IF(Q2&gt;60%,"Strong ",IF(Q2&gt;40%,"Moderate ",IF(Q2&lt;40.1%,"Weak ")))</f>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S2" s="26">
@@ -2609,7 +2607,7 @@
       </c>
       <c r="T2" s="26">
         <f>S2*Q2</f>
-        <v>10000</v>
+        <v>30000.000000000004</v>
       </c>
       <c r="U2" t="s">
         <v>229</v>
@@ -2654,35 +2652,35 @@
         <v>0.15</v>
       </c>
       <c r="M3" s="25">
-        <f t="shared" ref="M3:M66" si="2">IF(H3&gt;70%,20%,IF(H3&gt;50%,15%,IF(H3&lt;25%,0%,10%)))</f>
+        <f t="shared" ref="M3:M66" si="1">IF(H3&gt;70%,20%,IF(H3&gt;50%,15%,IF(H3&lt;25%,0%,10%)))</f>
         <v>0</v>
       </c>
       <c r="N3" s="25">
-        <f t="shared" ref="N3:N66" si="3">IF(I3="Commit",20%,IF(I3="Probable",15%,IF(I3="Best Case",5%,0%)))</f>
+        <f t="shared" ref="N3:N66" si="2">IF(I3="Commit",20%,IF(I3="Probable",15%,IF(I3="Best Case",5%,0%)))</f>
         <v>0.2</v>
       </c>
       <c r="O3" s="25">
-        <f t="shared" ref="O3:O66" si="4">IF(K3&gt;=4,0%,IF(K3&gt;=3,10%,IF(K3&lt;2,20%,15%)))</f>
+        <f t="shared" ref="O3:O66" si="3">IF(K3&gt;=4,0%,IF(K3&gt;=3,10%,IF(K3&lt;2,20%,15%)))</f>
         <v>0</v>
       </c>
       <c r="P3" s="25">
-        <f t="shared" ref="P3:P66" si="5">IF(F3&gt;90%,20%,IF(F3&gt;75%,10%,IF(F3&lt;50%,0%,5%)))</f>
+        <f t="shared" ref="P3:P66" si="4">IF(F3&gt;90%,20%,IF(F3&gt;75%,10%,IF(F3&lt;50%,0%,5%)))</f>
         <v>0.2</v>
       </c>
       <c r="Q3" s="25">
+        <f t="shared" ref="Q3:Q66" si="5">SUM(L3:P3)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R3" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="R3" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S3" s="26">
         <v>100000</v>
       </c>
       <c r="T3" s="26">
         <f t="shared" ref="T3:T33" si="6">S3*Q3</f>
-        <v>35000</v>
+        <v>55000.000000000007</v>
       </c>
       <c r="U3" t="s">
         <v>237</v>
@@ -2727,35 +2725,35 @@
         <v>0.2</v>
       </c>
       <c r="M4" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N4" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O4" s="25">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="O4" s="25">
+      <c r="P4" s="25">
         <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="P4" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q4" s="25">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="R4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R4" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Moderate </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S4" s="26">
         <v>100000</v>
       </c>
       <c r="T4" s="26">
         <f t="shared" si="6"/>
-        <v>60000.000000000007</v>
+        <v>70000</v>
       </c>
       <c r="U4" t="s">
         <v>280</v>
@@ -2800,35 +2798,35 @@
         <v>0.1</v>
       </c>
       <c r="M5" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N5" s="25">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="N5" s="25">
+      <c r="O5" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O5" s="25">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q5" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="R5" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S5" s="26">
         <v>100000</v>
       </c>
       <c r="T5" s="26">
         <f t="shared" si="6"/>
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="U5" t="s">
         <v>311</v>
@@ -2873,35 +2871,35 @@
         <v>0.2</v>
       </c>
       <c r="M6" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N6" s="25">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="N6" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="25">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="O6" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="25">
+      <c r="Q6" s="25">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q6" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="R6" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R6" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Moderate </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S6" s="26">
         <v>100000</v>
       </c>
       <c r="T6" s="26">
         <f t="shared" si="6"/>
-        <v>55000.000000000007</v>
+        <v>75000</v>
       </c>
       <c r="U6" t="s">
         <v>233</v>
@@ -2946,27 +2944,27 @@
         <v>0.1</v>
       </c>
       <c r="M7" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N7" s="25">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="N7" s="25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O7" s="25">
+      <c r="P7" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q7" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="R7" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="R7" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S7" s="26">
@@ -2974,7 +2972,7 @@
       </c>
       <c r="T7" s="26">
         <f t="shared" si="6"/>
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="U7" t="s">
         <v>282</v>
@@ -3019,27 +3017,27 @@
         <v>0.1</v>
       </c>
       <c r="M8" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N8" s="25">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="N8" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="25">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="O8" s="25">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q8" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R8" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="R8" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S8" s="26">
@@ -3047,7 +3045,7 @@
       </c>
       <c r="T8" s="26">
         <f t="shared" si="6"/>
-        <v>45000</v>
+        <v>55000.000000000007</v>
       </c>
       <c r="U8" t="s">
         <v>288</v>
@@ -3092,35 +3090,35 @@
         <v>0.2</v>
       </c>
       <c r="M9" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O9" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q9" s="25">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="R9" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="R9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S9" s="26">
         <v>100000</v>
       </c>
       <c r="T9" s="26">
         <f t="shared" si="6"/>
-        <v>35000</v>
+        <v>44999.999999999993</v>
       </c>
       <c r="U9" t="s">
         <v>294</v>
@@ -3165,35 +3163,35 @@
         <v>0.2</v>
       </c>
       <c r="M10" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N10" s="25">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="N10" s="25">
+      <c r="O10" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O10" s="25">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" s="25">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q10" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="R10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="R10" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Moderate </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S10" s="26">
         <v>100000</v>
       </c>
       <c r="T10" s="26">
         <f t="shared" si="6"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="U10" t="s">
         <v>215</v>
@@ -3238,35 +3236,35 @@
         <v>0.1</v>
       </c>
       <c r="M11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O11" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O11" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P11" s="25">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="P11" s="25">
+      <c r="Q11" s="25">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q11" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="R11" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="R11" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Moderate </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S11" s="26">
         <v>100000</v>
       </c>
       <c r="T11" s="26">
         <f t="shared" si="6"/>
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="U11" t="s">
         <v>217</v>
@@ -3311,35 +3309,35 @@
         <v>0.15</v>
       </c>
       <c r="M12" s="25">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="25">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="N12" s="25">
+      <c r="O12" s="25">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="O12" s="25">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q12" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="R12" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R12" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Moderate </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S12" s="26">
         <v>75000</v>
       </c>
       <c r="T12" s="26">
         <f t="shared" si="6"/>
-        <v>41250</v>
+        <v>48750</v>
       </c>
       <c r="U12" t="s">
         <v>284</v>
@@ -3384,27 +3382,27 @@
         <v>0.2</v>
       </c>
       <c r="M13" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="25">
+      <c r="O13" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="25">
+      <c r="P13" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q13" s="25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R13" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="R13" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S13" s="26">
@@ -3412,7 +3410,7 @@
       </c>
       <c r="T13" s="26">
         <f t="shared" si="6"/>
-        <v>15000</v>
+        <v>22500.000000000004</v>
       </c>
       <c r="U13" t="s">
         <v>320</v>
@@ -3457,27 +3455,27 @@
         <v>0.1</v>
       </c>
       <c r="M14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="25">
+      <c r="O14" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="25">
+      <c r="P14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q14" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="R14" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S14" s="26">
@@ -3485,7 +3483,7 @@
       </c>
       <c r="T14" s="26">
         <f t="shared" si="6"/>
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="U14" t="s">
         <v>259</v>
@@ -3530,27 +3528,27 @@
         <v>0.2</v>
       </c>
       <c r="M15" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N15" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N15" s="25">
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="25">
+      <c r="P15" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q15" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R15" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="R15" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S15" s="26">
@@ -3558,7 +3556,7 @@
       </c>
       <c r="T15" s="26">
         <f t="shared" si="6"/>
-        <v>22500.000000000004</v>
+        <v>30000</v>
       </c>
       <c r="U15" t="s">
         <v>286</v>
@@ -3603,27 +3601,27 @@
         <v>0.2</v>
       </c>
       <c r="M16" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="25">
+      <c r="O16" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O16" s="25">
+      <c r="P16" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q16" s="25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R16" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="R16" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S16" s="26">
@@ -3631,7 +3629,7 @@
       </c>
       <c r="T16" s="26">
         <f t="shared" si="6"/>
-        <v>15000</v>
+        <v>22500.000000000004</v>
       </c>
       <c r="U16" t="s">
         <v>286</v>
@@ -3676,27 +3674,27 @@
         <v>0.1</v>
       </c>
       <c r="M17" s="25">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="N17" s="25">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="N17" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O17" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q17" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R17" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.45000000000000007</v>
-      </c>
-      <c r="R17" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S17" s="26">
@@ -3704,7 +3702,7 @@
       </c>
       <c r="T17" s="26">
         <f t="shared" si="6"/>
-        <v>33750.000000000007</v>
+        <v>41250</v>
       </c>
       <c r="U17" t="s">
         <v>290</v>
@@ -3749,27 +3747,27 @@
         <v>0.15</v>
       </c>
       <c r="M18" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N18" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O18" s="25">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="O18" s="25">
+        <v>0</v>
+      </c>
+      <c r="P18" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q18" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q18" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R18" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="R18" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S18" s="26">
@@ -3777,7 +3775,7 @@
       </c>
       <c r="T18" s="26">
         <f t="shared" si="6"/>
-        <v>33750</v>
+        <v>41250</v>
       </c>
       <c r="U18" t="s">
         <v>271</v>
@@ -3822,27 +3820,27 @@
         <v>0.15</v>
       </c>
       <c r="M19" s="25">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="N19" s="25">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="N19" s="25">
+      <c r="O19" s="25">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="O19" s="25">
+      <c r="P19" s="25">
         <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="P19" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q19" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q19" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="R19" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="R19" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S19" s="26">
@@ -3850,7 +3848,7 @@
       </c>
       <c r="T19" s="26">
         <f t="shared" si="6"/>
-        <v>56250</v>
+        <v>63750</v>
       </c>
       <c r="U19" t="s">
         <v>280</v>
@@ -3895,27 +3893,27 @@
         <v>0.2</v>
       </c>
       <c r="M20" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N20" s="25">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="N20" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O20" s="25">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="O20" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="P20" s="25">
         <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="P20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="R20" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-      <c r="R20" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S20" s="26">
@@ -3968,27 +3966,27 @@
         <v>0.2</v>
       </c>
       <c r="M21" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N21" s="25">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="N21" s="25">
+      <c r="O21" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O21" s="25">
+        <v>0</v>
+      </c>
+      <c r="P21" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q21" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q21" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="R21" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="R21" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S21" s="26">
@@ -3996,7 +3994,7 @@
       </c>
       <c r="T21" s="26">
         <f t="shared" si="6"/>
-        <v>37500</v>
+        <v>45000</v>
       </c>
       <c r="U21" t="s">
         <v>334</v>
@@ -4041,27 +4039,27 @@
         <v>0.1</v>
       </c>
       <c r="M22" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N22" s="25">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="N22" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O22" s="25">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="O22" s="25">
+      <c r="P22" s="25">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="P22" s="25">
+      <c r="Q22" s="25">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q22" s="25">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="R22" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-      <c r="R22" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S22" s="26">
@@ -4069,7 +4067,7 @@
       </c>
       <c r="T22" s="26">
         <f t="shared" si="6"/>
-        <v>48750</v>
+        <v>63750.000000000007</v>
       </c>
       <c r="U22" t="s">
         <v>239</v>
@@ -4114,27 +4112,27 @@
         <v>0.15</v>
       </c>
       <c r="M23" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N23" s="25">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="25">
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="N23" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="25">
+      <c r="P23" s="25">
         <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="P23" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q23" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q23" s="25">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="R23" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="R23" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S23" s="26">
@@ -4142,7 +4140,7 @@
       </c>
       <c r="T23" s="26">
         <f t="shared" si="6"/>
-        <v>33750</v>
+        <v>41249.999999999993</v>
       </c>
       <c r="U23" t="s">
         <v>263</v>
@@ -4187,27 +4185,27 @@
         <v>0.15</v>
       </c>
       <c r="M24" s="25">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="N24" s="25">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="N24" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O24" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O24" s="25">
+        <v>0</v>
+      </c>
+      <c r="P24" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P24" s="25">
+      <c r="Q24" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="R24" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S24" s="26">
@@ -4260,27 +4258,27 @@
         <v>0.15</v>
       </c>
       <c r="M25" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N25" s="25">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="N25" s="25">
+      <c r="O25" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O25" s="25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q25" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q25" s="25">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="R25" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="R25" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S25" s="26">
@@ -4288,7 +4286,7 @@
       </c>
       <c r="T25" s="26">
         <f t="shared" si="6"/>
-        <v>56249.999999999993</v>
+        <v>68749.999999999985</v>
       </c>
       <c r="U25" t="s">
         <v>332</v>
@@ -4333,35 +4331,35 @@
         <v>0.1</v>
       </c>
       <c r="M26" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N26" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N26" s="25">
+        <v>0</v>
+      </c>
+      <c r="O26" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="P26" s="25">
         <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="P26" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q26" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q26" s="25">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="R26" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="R26" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S26" s="26">
         <v>125000</v>
       </c>
       <c r="T26" s="26">
         <f t="shared" si="6"/>
-        <v>43750</v>
+        <v>56249.999999999993</v>
       </c>
       <c r="U26" t="s">
         <v>296</v>
@@ -4406,27 +4404,27 @@
         <v>0.2</v>
       </c>
       <c r="M27" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N27" s="25">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="N27" s="25">
+      <c r="O27" s="25">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="O27" s="25">
+      <c r="P27" s="25">
         <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="P27" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="R27" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-      <c r="R27" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S27" s="26">
@@ -4479,27 +4477,27 @@
         <v>0.1</v>
       </c>
       <c r="M28" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="25">
+      <c r="O28" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O28" s="25">
+      <c r="P28" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q28" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="R28" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="R28" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S28" s="26">
@@ -4507,7 +4505,7 @@
       </c>
       <c r="T28" s="26">
         <f t="shared" si="6"/>
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="U28" t="s">
         <v>328</v>
@@ -4552,27 +4550,27 @@
         <v>0.15</v>
       </c>
       <c r="M29" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N29" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N29" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="O29" s="25">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O29" s="25">
+        <v>0</v>
+      </c>
+      <c r="P29" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q29" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q29" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R29" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="R29" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S29" s="26">
@@ -4580,7 +4578,7 @@
       </c>
       <c r="T29" s="26">
         <f t="shared" si="6"/>
-        <v>37500</v>
+        <v>50000</v>
       </c>
       <c r="U29" t="s">
         <v>294</v>
@@ -4625,27 +4623,27 @@
         <v>0.1</v>
       </c>
       <c r="M30" s="25">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="N30" s="25">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="N30" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O30" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O30" s="25">
+        <v>0</v>
+      </c>
+      <c r="P30" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q30" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q30" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R30" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.45000000000000007</v>
-      </c>
-      <c r="R30" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S30" s="26">
@@ -4653,7 +4651,7 @@
       </c>
       <c r="T30" s="26">
         <f t="shared" si="6"/>
-        <v>56250.000000000007</v>
+        <v>68750</v>
       </c>
       <c r="U30" t="s">
         <v>300</v>
@@ -4698,27 +4696,27 @@
         <v>0.1</v>
       </c>
       <c r="M31" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O31" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O31" s="25">
+        <v>0</v>
+      </c>
+      <c r="P31" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q31" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q31" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="R31" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="R31" s="26" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S31" s="26">
@@ -4726,7 +4724,7 @@
       </c>
       <c r="T31" s="26">
         <f t="shared" si="6"/>
-        <v>31250</v>
+        <v>43750</v>
       </c>
       <c r="U31" t="s">
         <v>326</v>
@@ -4771,27 +4769,27 @@
         <v>0.2</v>
       </c>
       <c r="M32" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O32" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O32" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P32" s="25">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="P32" s="25">
+      <c r="Q32" s="25">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q32" s="25">
-        <f>SUM(L32:P32)</f>
         <v>0.75</v>
       </c>
       <c r="R32" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S32" s="26">
@@ -4844,27 +4842,27 @@
         <v>0.2</v>
       </c>
       <c r="M33" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N33" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N33" s="25">
+        <v>0</v>
+      </c>
+      <c r="O33" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="25">
+      <c r="P33" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P33" s="25">
+      <c r="Q33" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="25">
-        <f t="shared" ref="Q33:Q64" si="7">SUM(L33:O33)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="R33" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S33" s="26">
@@ -4917,35 +4915,35 @@
         <v>0.2</v>
       </c>
       <c r="M34" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="25">
+      <c r="O34" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O34" s="25">
+      <c r="P34" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q34" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q34" s="25">
-        <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="R34" s="26" t="str">
-        <f t="shared" ref="R34:R65" si="8">IF(Q34&gt;60%,"Strong ",IF(Q34&gt;40%,"Moderate ",IF(Q34&lt;40.1%,"Weak ")))</f>
+        <f t="shared" ref="R34:R65" si="7">IF(Q34&gt;60%,"Strong ",IF(Q34&gt;40%,"Moderate ",IF(Q34&lt;40.1%,"Weak ")))</f>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S34" s="26">
         <v>125000</v>
       </c>
       <c r="T34" s="26">
-        <f t="shared" ref="T34:T65" si="9">S34*Q34</f>
-        <v>25000</v>
+        <f t="shared" ref="T34:T65" si="8">S34*Q34</f>
+        <v>37500.000000000007</v>
       </c>
       <c r="U34" t="s">
         <v>284</v>
@@ -4990,35 +4988,35 @@
         <v>0.1</v>
       </c>
       <c r="M35" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N35" s="25">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="N35" s="25">
+        <v>0</v>
+      </c>
+      <c r="O35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O35" s="25">
+      <c r="P35" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q35" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q35" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="R35" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="R35" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S35" s="26">
         <v>125000</v>
       </c>
       <c r="T35" s="26">
-        <f t="shared" si="9"/>
-        <v>31250</v>
+        <f t="shared" si="8"/>
+        <v>43750</v>
       </c>
       <c r="U35" t="s">
         <v>247</v>
@@ -5063,35 +5061,35 @@
         <v>0.2</v>
       </c>
       <c r="M36" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="25">
+      <c r="O36" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="P36" s="25">
         <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="P36" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q36" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q36" s="25">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="R36" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.35</v>
-      </c>
-      <c r="R36" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S36" s="26">
         <v>120000</v>
       </c>
       <c r="T36" s="26">
-        <f t="shared" si="9"/>
-        <v>42000</v>
+        <f t="shared" si="8"/>
+        <v>53999.999999999993</v>
       </c>
       <c r="U36" t="s">
         <v>284</v>
@@ -5136,35 +5134,35 @@
         <v>0.1</v>
       </c>
       <c r="M37" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O37" s="25">
         <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="P37" s="25">
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="O37" s="25">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="P37" s="25">
+      <c r="Q37" s="25">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q37" s="25">
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="R37" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.45000000000000007</v>
-      </c>
-      <c r="R37" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Moderate </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S37" s="26">
         <v>110000</v>
       </c>
       <c r="T37" s="26">
-        <f t="shared" si="9"/>
-        <v>49500.000000000007</v>
+        <f t="shared" si="8"/>
+        <v>71500.000000000015</v>
       </c>
       <c r="U37" t="s">
         <v>227</v>
@@ -5209,35 +5207,35 @@
         <v>0.1</v>
       </c>
       <c r="M38" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N38" s="25">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="N38" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O38" s="25">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="O38" s="25">
+        <v>0</v>
+      </c>
+      <c r="P38" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q38" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q38" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R38" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.45</v>
-      </c>
-      <c r="R38" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S38" s="26">
         <v>110000</v>
       </c>
       <c r="T38" s="26">
-        <f t="shared" si="9"/>
-        <v>49500</v>
+        <f t="shared" si="8"/>
+        <v>60500.000000000007</v>
       </c>
       <c r="U38" t="s">
         <v>257</v>
@@ -5282,35 +5280,35 @@
         <v>0.15</v>
       </c>
       <c r="M39" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N39" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N39" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="O39" s="25">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O39" s="25">
+        <v>0</v>
+      </c>
+      <c r="P39" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q39" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q39" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R39" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.3</v>
-      </c>
-      <c r="R39" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S39" s="26">
         <v>110000</v>
       </c>
       <c r="T39" s="26">
-        <f t="shared" si="9"/>
-        <v>33000</v>
+        <f t="shared" si="8"/>
+        <v>44000</v>
       </c>
       <c r="U39" t="s">
         <v>269</v>
@@ -5355,35 +5353,35 @@
         <v>0.15</v>
       </c>
       <c r="M40" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N40" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N40" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="O40" s="25">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O40" s="25">
+        <v>0</v>
+      </c>
+      <c r="P40" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q40" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q40" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R40" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.3</v>
-      </c>
-      <c r="R40" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S40" s="26">
         <v>110000</v>
       </c>
       <c r="T40" s="26">
-        <f t="shared" si="9"/>
-        <v>33000</v>
+        <f t="shared" si="8"/>
+        <v>44000</v>
       </c>
       <c r="U40" t="s">
         <v>336</v>
@@ -5428,35 +5426,35 @@
         <v>0.1</v>
       </c>
       <c r="M41" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N41" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N41" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O41" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O41" s="25">
+        <v>0</v>
+      </c>
+      <c r="P41" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q41" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q41" s="25">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="R41" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.35</v>
-      </c>
-      <c r="R41" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S41" s="26">
         <v>110000</v>
       </c>
       <c r="T41" s="26">
-        <f t="shared" si="9"/>
-        <v>38500</v>
+        <f t="shared" si="8"/>
+        <v>49499.999999999993</v>
       </c>
       <c r="U41" t="s">
         <v>324</v>
@@ -5501,34 +5499,34 @@
         <v>0.1</v>
       </c>
       <c r="M42" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N42" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N42" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O42" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O42" s="25">
+        <v>0</v>
+      </c>
+      <c r="P42" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P42" s="25">
+      <c r="Q42" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="R42" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.35</v>
-      </c>
-      <c r="R42" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S42" s="26">
         <v>100000</v>
       </c>
       <c r="T42" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>35000</v>
       </c>
       <c r="U42" t="s">
@@ -5574,34 +5572,34 @@
         <v>0.15</v>
       </c>
       <c r="M43" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N43" s="25">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="N43" s="25">
+      <c r="O43" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O43" s="25">
+        <v>0</v>
+      </c>
+      <c r="P43" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P43" s="25">
+      <c r="Q43" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="25">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="R43" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="R43" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S43" s="26">
         <v>100000</v>
       </c>
       <c r="T43" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>44999.999999999993</v>
       </c>
       <c r="U43" t="s">
@@ -5647,35 +5645,35 @@
         <v>0.2</v>
       </c>
       <c r="M44" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O44" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O44" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P44" s="25">
         <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="P44" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q44" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q44" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="R44" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R44" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Moderate </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S44" s="26">
         <v>100000</v>
       </c>
       <c r="T44" s="26">
-        <f t="shared" si="9"/>
-        <v>55000.000000000007</v>
+        <f t="shared" si="8"/>
+        <v>65000</v>
       </c>
       <c r="U44" t="s">
         <v>278</v>
@@ -5720,35 +5718,35 @@
         <v>0.1</v>
       </c>
       <c r="M45" s="25">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="N45" s="25">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="N45" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O45" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O45" s="25">
+        <v>0</v>
+      </c>
+      <c r="P45" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q45" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q45" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R45" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.45000000000000007</v>
-      </c>
-      <c r="R45" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S45" s="26">
         <v>100000</v>
       </c>
       <c r="T45" s="26">
-        <f t="shared" si="9"/>
-        <v>45000.000000000007</v>
+        <f t="shared" si="8"/>
+        <v>55000.000000000007</v>
       </c>
       <c r="U45" t="s">
         <v>304</v>
@@ -5793,35 +5791,35 @@
         <v>0.1</v>
       </c>
       <c r="M46" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N46" s="25">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="N46" s="25">
+      <c r="O46" s="25">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="O46" s="25">
+      <c r="P46" s="25">
         <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="P46" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q46" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q46" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="R46" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R46" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Moderate </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S46" s="26">
         <v>100000</v>
       </c>
       <c r="T46" s="26">
-        <f t="shared" si="9"/>
-        <v>55000.000000000007</v>
+        <f t="shared" si="8"/>
+        <v>65000</v>
       </c>
       <c r="U46" t="s">
         <v>332</v>
@@ -5866,35 +5864,35 @@
         <v>0.2</v>
       </c>
       <c r="M47" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N47" s="25">
         <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="O47" s="25">
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="N47" s="25">
-        <f t="shared" si="3"/>
+      <c r="P47" s="25">
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="O47" s="25">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="P47" s="25">
+      <c r="Q47" s="25">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q47" s="25">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="R47" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="R47" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S47" s="26">
         <v>90000</v>
       </c>
       <c r="T47" s="26">
-        <f t="shared" si="9"/>
-        <v>63000.000000000007</v>
+        <f t="shared" si="8"/>
+        <v>81000.000000000015</v>
       </c>
       <c r="U47" t="s">
         <v>219</v>
@@ -5939,35 +5937,35 @@
         <v>0.1</v>
       </c>
       <c r="M48" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N48" s="25">
+      <c r="O48" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O48" s="25">
+      <c r="P48" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q48" s="25">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q48" s="25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R48" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="R48" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S48" s="26">
         <v>90000</v>
       </c>
       <c r="T48" s="26">
-        <f t="shared" si="9"/>
-        <v>9000</v>
+        <f t="shared" si="8"/>
+        <v>27000.000000000004</v>
       </c>
       <c r="U48" t="s">
         <v>243</v>
@@ -6012,35 +6010,35 @@
         <v>0.1</v>
       </c>
       <c r="M49" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N49" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N49" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="O49" s="25">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O49" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P49" s="25">
         <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="P49" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q49" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q49" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R49" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.45</v>
-      </c>
-      <c r="R49" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S49" s="26">
         <v>90000</v>
       </c>
       <c r="T49" s="26">
-        <f t="shared" si="9"/>
-        <v>40500</v>
+        <f t="shared" si="8"/>
+        <v>49500.000000000007</v>
       </c>
       <c r="U49" t="s">
         <v>245</v>
@@ -6085,35 +6083,35 @@
         <v>0.2</v>
       </c>
       <c r="M50" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N50" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N50" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="O50" s="25">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O50" s="25">
+        <v>0</v>
+      </c>
+      <c r="P50" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q50" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q50" s="25">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="R50" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="R50" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S50" s="26">
         <v>90000</v>
       </c>
       <c r="T50" s="26">
-        <f t="shared" si="9"/>
-        <v>31500.000000000004</v>
+        <f t="shared" si="8"/>
+        <v>40500.000000000007</v>
       </c>
       <c r="U50" t="s">
         <v>249</v>
@@ -6158,35 +6156,35 @@
         <v>0.2</v>
       </c>
       <c r="M51" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N51" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N51" s="25">
+        <v>0</v>
+      </c>
+      <c r="O51" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="P51" s="25">
         <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="P51" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q51" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q51" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R51" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.45000000000000007</v>
-      </c>
-      <c r="R51" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S51" s="26">
         <v>80000</v>
       </c>
       <c r="T51" s="26">
-        <f t="shared" si="9"/>
-        <v>36000.000000000007</v>
+        <f t="shared" si="8"/>
+        <v>44000</v>
       </c>
       <c r="U51" t="s">
         <v>253</v>
@@ -6231,35 +6229,35 @@
         <v>0.15</v>
       </c>
       <c r="M52" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N52" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N52" s="25">
+        <v>0</v>
+      </c>
+      <c r="O52" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O52" s="25">
+      <c r="P52" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q52" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q52" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="R52" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="R52" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S52" s="26">
         <v>80000</v>
       </c>
       <c r="T52" s="26">
-        <f t="shared" si="9"/>
-        <v>20000</v>
+        <f t="shared" si="8"/>
+        <v>28000</v>
       </c>
       <c r="U52" t="s">
         <v>261</v>
@@ -6304,35 +6302,35 @@
         <v>0.2</v>
       </c>
       <c r="M53" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N53" s="25">
+      <c r="O53" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O53" s="25">
+      <c r="P53" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q53" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q53" s="25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R53" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
-      </c>
-      <c r="R53" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S53" s="26">
         <v>80000</v>
       </c>
       <c r="T53" s="26">
-        <f t="shared" si="9"/>
-        <v>16000</v>
+        <f t="shared" si="8"/>
+        <v>24000.000000000004</v>
       </c>
       <c r="U53" t="s">
         <v>274</v>
@@ -6377,35 +6375,35 @@
         <v>0.15</v>
       </c>
       <c r="M54" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O54" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O54" s="25">
+        <v>0</v>
+      </c>
+      <c r="P54" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q54" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q54" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R54" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.3</v>
-      </c>
-      <c r="R54" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S54" s="26">
         <v>80000</v>
       </c>
       <c r="T54" s="26">
-        <f t="shared" si="9"/>
-        <v>24000</v>
+        <f t="shared" si="8"/>
+        <v>32000</v>
       </c>
       <c r="U54" t="s">
         <v>249</v>
@@ -6450,35 +6448,35 @@
         <v>0.2</v>
       </c>
       <c r="M55" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N55" s="25">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="N55" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="O55" s="25">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O55" s="25">
+        <v>0</v>
+      </c>
+      <c r="P55" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q55" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q55" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="R55" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="R55" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S55" s="26">
         <v>80000</v>
       </c>
       <c r="T55" s="26">
-        <f t="shared" si="9"/>
-        <v>31999.999999999996</v>
+        <f t="shared" si="8"/>
+        <v>40000</v>
       </c>
       <c r="U55" t="s">
         <v>307</v>
@@ -6523,35 +6521,35 @@
         <v>0.2</v>
       </c>
       <c r="M56" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N56" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N56" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="O56" s="25">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O56" s="25">
+        <v>0</v>
+      </c>
+      <c r="P56" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q56" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q56" s="25">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="R56" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="R56" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S56" s="26">
         <v>80000</v>
       </c>
       <c r="T56" s="26">
-        <f t="shared" si="9"/>
-        <v>28000.000000000004</v>
+        <f t="shared" si="8"/>
+        <v>36000.000000000007</v>
       </c>
       <c r="U56" t="s">
         <v>322</v>
@@ -6596,35 +6594,35 @@
         <v>0.1</v>
       </c>
       <c r="M57" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N57" s="25">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="N57" s="25">
+      <c r="O57" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O57" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P57" s="25">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="P57" s="25">
+      <c r="Q57" s="25">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q57" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="R57" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R57" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Moderate </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S57" s="26">
         <v>70000</v>
       </c>
       <c r="T57" s="26">
-        <f t="shared" si="9"/>
-        <v>42000.000000000007</v>
+        <f t="shared" si="8"/>
+        <v>56000</v>
       </c>
       <c r="U57" t="s">
         <v>225</v>
@@ -6669,35 +6667,35 @@
         <v>0.15</v>
       </c>
       <c r="M58" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="O58" s="25">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O58" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P58" s="25">
         <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="P58" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q58" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q58" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="R58" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.4</v>
-      </c>
-      <c r="R58" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S58" s="26">
         <v>70000</v>
       </c>
       <c r="T58" s="26">
-        <f t="shared" si="9"/>
-        <v>28000</v>
+        <f t="shared" si="8"/>
+        <v>35000</v>
       </c>
       <c r="U58" t="s">
         <v>251</v>
@@ -6742,35 +6740,35 @@
         <v>0.2</v>
       </c>
       <c r="M59" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N59" s="25">
+      <c r="O59" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O59" s="25">
+      <c r="P59" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q59" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q59" s="25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R59" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.2</v>
-      </c>
-      <c r="R59" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S59" s="26">
         <v>70000</v>
       </c>
       <c r="T59" s="26">
-        <f t="shared" si="9"/>
-        <v>14000</v>
+        <f t="shared" si="8"/>
+        <v>21000.000000000004</v>
       </c>
       <c r="U59" t="s">
         <v>255</v>
@@ -6815,35 +6813,35 @@
         <v>0.1</v>
       </c>
       <c r="M60" s="25">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="N60" s="25">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="N60" s="25">
+      <c r="O60" s="25">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="O60" s="25">
+        <v>0</v>
+      </c>
+      <c r="P60" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q60" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q60" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="R60" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="R60" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S60" s="26">
         <v>70000</v>
       </c>
       <c r="T60" s="26">
-        <f t="shared" si="9"/>
-        <v>35000</v>
+        <f t="shared" si="8"/>
+        <v>42000</v>
       </c>
       <c r="U60" t="s">
         <v>265</v>
@@ -6888,35 +6886,35 @@
         <v>0.15</v>
       </c>
       <c r="M61" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N61" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N61" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="O61" s="25">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O61" s="25">
+        <v>0</v>
+      </c>
+      <c r="P61" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q61" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q61" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R61" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.3</v>
-      </c>
-      <c r="R61" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S61" s="26">
         <v>70000</v>
       </c>
       <c r="T61" s="26">
-        <f t="shared" si="9"/>
-        <v>21000</v>
+        <f t="shared" si="8"/>
+        <v>28000</v>
       </c>
       <c r="U61" t="s">
         <v>272</v>
@@ -6961,35 +6959,35 @@
         <v>0.15</v>
       </c>
       <c r="M62" s="25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N62" s="25">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="N62" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="O62" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O62" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P62" s="25">
         <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="P62" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q62" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q62" s="25">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="R62" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R62" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Moderate </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S62" s="26">
         <v>70000</v>
       </c>
       <c r="T62" s="26">
-        <f t="shared" si="9"/>
-        <v>42000.000000000007</v>
+        <f t="shared" si="8"/>
+        <v>49000.000000000007</v>
       </c>
       <c r="U62" t="s">
         <v>278</v>
@@ -7034,34 +7032,34 @@
         <v>0.15</v>
       </c>
       <c r="M63" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N63" s="25">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="N63" s="25">
+      <c r="O63" s="25">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="O63" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="P63" s="25">
         <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="P63" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="25">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="R63" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="R63" s="26" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S63" s="26">
         <v>70000</v>
       </c>
       <c r="T63" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38499.999999999993</v>
       </c>
       <c r="U63" t="s">
@@ -7107,35 +7105,35 @@
         <v>0.1</v>
       </c>
       <c r="M64" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N64" s="25">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="N64" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="O64" s="25">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O64" s="25">
+        <v>0</v>
+      </c>
+      <c r="P64" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q64" s="25">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q64" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="R64" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0.3</v>
-      </c>
-      <c r="R64" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S64" s="26">
         <v>60000</v>
       </c>
       <c r="T64" s="26">
-        <f t="shared" si="9"/>
-        <v>18000</v>
+        <f t="shared" si="8"/>
+        <v>30000</v>
       </c>
       <c r="U64" t="s">
         <v>221</v>
@@ -7180,35 +7178,35 @@
         <v>0.15</v>
       </c>
       <c r="M65" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N65" s="25">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="N65" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O65" s="25">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="O65" s="25">
+        <v>0</v>
+      </c>
+      <c r="P65" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q65" s="25">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q65" s="25">
-        <f t="shared" ref="Q65:Q101" si="10">SUM(L65:O65)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R65" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S65" s="26">
         <v>60000</v>
       </c>
       <c r="T65" s="26">
-        <f t="shared" si="9"/>
-        <v>30000</v>
+        <f t="shared" si="8"/>
+        <v>36000</v>
       </c>
       <c r="U65" t="s">
         <v>249</v>
@@ -7253,34 +7251,34 @@
         <v>0.2</v>
       </c>
       <c r="M66" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N66" s="25">
+      <c r="O66" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="P66" s="25">
         <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="P66" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="25">
-        <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
       <c r="R66" s="26" t="str">
-        <f t="shared" ref="R66:R97" si="11">IF(Q66&gt;60%,"Strong ",IF(Q66&gt;40%,"Moderate ",IF(Q66&lt;40.1%,"Weak ")))</f>
+        <f t="shared" ref="R66:R97" si="9">IF(Q66&gt;60%,"Strong ",IF(Q66&gt;40%,"Moderate ",IF(Q66&lt;40.1%,"Weak ")))</f>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S66" s="26">
         <v>60000</v>
       </c>
       <c r="T66" s="26">
-        <f t="shared" ref="T66:T97" si="12">S66*Q66</f>
+        <f t="shared" ref="T66:T97" si="10">S66*Q66</f>
         <v>21000</v>
       </c>
       <c r="U66" t="s">
@@ -7326,34 +7324,34 @@
         <v>0.2</v>
       </c>
       <c r="M67" s="25">
-        <f t="shared" ref="M67:M101" si="13">IF(H67&gt;70%,20%,IF(H67&gt;50%,15%,IF(H67&lt;25%,0%,10%)))</f>
+        <f t="shared" ref="M67:M101" si="11">IF(H67&gt;70%,20%,IF(H67&gt;50%,15%,IF(H67&lt;25%,0%,10%)))</f>
         <v>0.2</v>
       </c>
       <c r="N67" s="25">
-        <f t="shared" ref="N67:N101" si="14">IF(I67="Commit",20%,IF(I67="Probable",15%,IF(I67="Best Case",5%,0%)))</f>
+        <f t="shared" ref="N67:N101" si="12">IF(I67="Commit",20%,IF(I67="Probable",15%,IF(I67="Best Case",5%,0%)))</f>
         <v>0.15</v>
       </c>
       <c r="O67" s="25">
-        <f t="shared" ref="O67:O101" si="15">IF(K67&gt;=4,0%,IF(K67&gt;=3,10%,IF(K67&lt;2,20%,15%)))</f>
+        <f t="shared" ref="O67:O101" si="13">IF(K67&gt;=4,0%,IF(K67&gt;=3,10%,IF(K67&lt;2,20%,15%)))</f>
         <v>0.15</v>
       </c>
       <c r="P67" s="25">
-        <f t="shared" ref="P67:P101" si="16">IF(F67&gt;90%,20%,IF(F67&gt;75%,10%,IF(F67&lt;50%,0%,5%)))</f>
+        <f t="shared" ref="P67:P101" si="14">IF(F67&gt;90%,20%,IF(F67&gt;75%,10%,IF(F67&lt;50%,0%,5%)))</f>
         <v>0</v>
       </c>
       <c r="Q67" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="Q67:Q101" si="15">SUM(L67:P67)</f>
         <v>0.70000000000000007</v>
       </c>
       <c r="R67" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S67" s="26">
         <v>60000</v>
       </c>
       <c r="T67" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>42000.000000000007</v>
       </c>
       <c r="U67" t="s">
@@ -7399,35 +7397,35 @@
         <v>0.2</v>
       </c>
       <c r="M68" s="25">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="N68" s="25">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="O68" s="25">
         <f t="shared" si="13"/>
-        <v>0.2</v>
-      </c>
-      <c r="N68" s="25">
+        <v>0</v>
+      </c>
+      <c r="P68" s="25">
         <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
-      <c r="O68" s="25">
+      <c r="Q68" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="25">
-        <f t="shared" si="16"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q68" s="25">
-        <f t="shared" si="10"/>
-        <v>0.60000000000000009</v>
+        <v>0.8</v>
       </c>
       <c r="R68" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">Moderate </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S68" s="26">
         <v>50000</v>
       </c>
       <c r="T68" s="26">
-        <f t="shared" si="12"/>
-        <v>30000.000000000004</v>
+        <f t="shared" si="10"/>
+        <v>40000</v>
       </c>
       <c r="U68" t="s">
         <v>241</v>
@@ -7472,35 +7470,35 @@
         <v>0.1</v>
       </c>
       <c r="M69" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="25">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="O69" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N69" s="25">
+      <c r="P69" s="25">
         <f t="shared" si="14"/>
-        <v>0.05</v>
-      </c>
-      <c r="O69" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q69" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q69" s="25">
-        <f t="shared" si="10"/>
-        <v>0.15000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="R69" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S69" s="26">
         <v>50000</v>
       </c>
       <c r="T69" s="26">
-        <f t="shared" si="12"/>
-        <v>7500.0000000000009</v>
+        <f t="shared" si="10"/>
+        <v>12500</v>
       </c>
       <c r="U69" t="s">
         <v>247</v>
@@ -7545,34 +7543,34 @@
         <v>0.2</v>
       </c>
       <c r="M70" s="25">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="N70" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O70" s="25">
         <f t="shared" si="13"/>
-        <v>0.2</v>
-      </c>
-      <c r="N70" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="P70" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O70" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="25">
         <f t="shared" si="15"/>
-        <v>0.15</v>
-      </c>
-      <c r="P70" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="25">
-        <f t="shared" si="10"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="R70" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S70" s="26">
         <v>50000</v>
       </c>
       <c r="T70" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>35000</v>
       </c>
       <c r="U70" t="s">
@@ -7618,34 +7616,34 @@
         <v>0.15</v>
       </c>
       <c r="M71" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N71" s="25">
+      <c r="P71" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O71" s="25">
+      <c r="Q71" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="25">
-        <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
       <c r="R71" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S71" s="26">
         <v>50000</v>
       </c>
       <c r="T71" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7500</v>
       </c>
       <c r="U71" t="s">
@@ -7691,34 +7689,34 @@
         <v>0.2</v>
       </c>
       <c r="M72" s="25">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="N72" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O72" s="25">
         <f t="shared" si="13"/>
-        <v>0.15</v>
-      </c>
-      <c r="N72" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P72" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O72" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="25">
         <f t="shared" si="15"/>
-        <v>0.2</v>
-      </c>
-      <c r="P72" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q72" s="25">
-        <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
       <c r="R72" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S72" s="26">
         <v>50000</v>
       </c>
       <c r="T72" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>35000</v>
       </c>
       <c r="U72" t="s">
@@ -7764,34 +7762,34 @@
         <v>0.1</v>
       </c>
       <c r="M73" s="25">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="N73" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="25">
         <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N73" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P73" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O73" s="25">
+      <c r="Q73" s="25">
         <f t="shared" si="15"/>
-        <v>0.2</v>
-      </c>
-      <c r="P73" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="25">
-        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="R73" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S73" s="26">
         <v>50000</v>
       </c>
       <c r="T73" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>20000</v>
       </c>
       <c r="U73" t="s">
@@ -7837,35 +7835,35 @@
         <v>0.2</v>
       </c>
       <c r="M74" s="25">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="N74" s="25">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="O74" s="25">
         <f t="shared" si="13"/>
-        <v>0.15</v>
-      </c>
-      <c r="N74" s="25">
+        <v>0</v>
+      </c>
+      <c r="P74" s="25">
         <f t="shared" si="14"/>
-        <v>0.05</v>
-      </c>
-      <c r="O74" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q74" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="25">
-        <f t="shared" si="16"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q74" s="25">
-        <f t="shared" si="10"/>
-        <v>0.39999999999999997</v>
+        <v>0.6</v>
       </c>
       <c r="R74" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">Weak </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S74" s="26">
         <v>40000</v>
       </c>
       <c r="T74" s="26">
-        <f t="shared" si="12"/>
-        <v>15999.999999999998</v>
+        <f t="shared" si="10"/>
+        <v>24000</v>
       </c>
       <c r="U74" t="s">
         <v>235</v>
@@ -7910,35 +7908,35 @@
         <v>0.15</v>
       </c>
       <c r="M75" s="25">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="N75" s="25">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="O75" s="25">
         <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N75" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="P75" s="25">
         <f t="shared" si="14"/>
-        <v>0.2</v>
-      </c>
-      <c r="O75" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q75" s="25">
         <f t="shared" si="15"/>
-        <v>0.15</v>
-      </c>
-      <c r="P75" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q75" s="25">
-        <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="R75" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">Moderate </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S75" s="26">
         <v>40000</v>
       </c>
       <c r="T75" s="26">
-        <f t="shared" si="12"/>
-        <v>24000</v>
+        <f t="shared" si="10"/>
+        <v>28000</v>
       </c>
       <c r="U75" t="s">
         <v>276</v>
@@ -7983,34 +7981,34 @@
         <v>0.15</v>
       </c>
       <c r="M76" s="25">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="N76" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O76" s="25">
         <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N76" s="25">
+        <v>0</v>
+      </c>
+      <c r="P76" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O76" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q76" s="25">
-        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="R76" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S76" s="26">
         <v>40000</v>
       </c>
       <c r="T76" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>16000</v>
       </c>
       <c r="U76" t="s">
@@ -8056,34 +8054,34 @@
         <v>0.15</v>
       </c>
       <c r="M77" s="25">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="N77" s="25">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="O77" s="25">
         <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N77" s="25">
+        <v>0</v>
+      </c>
+      <c r="P77" s="25">
         <f t="shared" si="14"/>
-        <v>0.05</v>
-      </c>
-      <c r="O77" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="25">
-        <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
       <c r="R77" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S77" s="26">
         <v>40000</v>
       </c>
       <c r="T77" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>12000</v>
       </c>
       <c r="U77" t="s">
@@ -8129,34 +8127,34 @@
         <v>0.15</v>
       </c>
       <c r="M78" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N78" s="25">
+      <c r="P78" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O78" s="25">
+      <c r="Q78" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P78" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q78" s="25">
-        <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
       <c r="R78" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S78" s="26">
         <v>40000</v>
       </c>
       <c r="T78" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6000</v>
       </c>
       <c r="U78" t="s">
@@ -8202,35 +8200,35 @@
         <v>0.15</v>
       </c>
       <c r="M79" s="25">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="N79" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O79" s="25">
         <f t="shared" si="13"/>
-        <v>0.15</v>
-      </c>
-      <c r="N79" s="25">
+        <v>0</v>
+      </c>
+      <c r="P79" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O79" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q79" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q79" s="25">
-        <f t="shared" si="10"/>
-        <v>0.44999999999999996</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="R79" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S79" s="26">
         <v>40000</v>
       </c>
       <c r="T79" s="26">
-        <f t="shared" si="12"/>
-        <v>18000</v>
+        <f t="shared" si="10"/>
+        <v>21999.999999999996</v>
       </c>
       <c r="U79" t="s">
         <v>309</v>
@@ -8275,35 +8273,35 @@
         <v>0.2</v>
       </c>
       <c r="M80" s="25">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="N80" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O80" s="25">
         <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N80" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P80" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O80" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q80" s="25">
         <f t="shared" si="15"/>
-        <v>0.2</v>
-      </c>
-      <c r="P80" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q80" s="25">
-        <f t="shared" si="10"/>
-        <v>0.65000000000000013</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="R80" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S80" s="26">
         <v>40000</v>
       </c>
       <c r="T80" s="26">
-        <f t="shared" si="12"/>
-        <v>26000.000000000004</v>
+        <f t="shared" si="10"/>
+        <v>30000.000000000004</v>
       </c>
       <c r="U80" t="s">
         <v>313</v>
@@ -8348,35 +8346,35 @@
         <v>0.1</v>
       </c>
       <c r="M81" s="25">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="N81" s="25">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="O81" s="25">
         <f t="shared" si="13"/>
-        <v>0.2</v>
-      </c>
-      <c r="N81" s="25">
+        <v>0</v>
+      </c>
+      <c r="P81" s="25">
         <f t="shared" si="14"/>
-        <v>0.2</v>
-      </c>
-      <c r="O81" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q81" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P81" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q81" s="25">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R81" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S81" s="26">
         <v>30000</v>
       </c>
       <c r="T81" s="26">
-        <f t="shared" si="12"/>
-        <v>15000</v>
+        <f t="shared" si="10"/>
+        <v>18000</v>
       </c>
       <c r="U81" t="s">
         <v>267</v>
@@ -8421,35 +8419,35 @@
         <v>0.2</v>
       </c>
       <c r="M82" s="25">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="N82" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="25">
         <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N82" s="25">
+        <v>0</v>
+      </c>
+      <c r="P82" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O82" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q82" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P82" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q82" s="25">
-        <f t="shared" si="10"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="R82" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S82" s="26">
         <v>30000</v>
       </c>
       <c r="T82" s="26">
-        <f t="shared" si="12"/>
-        <v>9000.0000000000018</v>
+        <f t="shared" si="10"/>
+        <v>12000</v>
       </c>
       <c r="U82" t="s">
         <v>290</v>
@@ -8494,34 +8492,34 @@
         <v>0.1</v>
       </c>
       <c r="M83" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O83" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N83" s="25">
+      <c r="P83" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O83" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P83" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q83" s="25">
-        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="R83" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S83" s="26">
         <v>30000</v>
       </c>
       <c r="T83" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7500</v>
       </c>
       <c r="U83" t="s">
@@ -8567,35 +8565,35 @@
         <v>0.15</v>
       </c>
       <c r="M84" s="25">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="N84" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O84" s="25">
         <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N84" s="25">
+        <v>0</v>
+      </c>
+      <c r="P84" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O84" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q84" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P84" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q84" s="25">
-        <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R84" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">Weak </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S84" s="26">
         <v>30000</v>
       </c>
       <c r="T84" s="26">
-        <f t="shared" si="12"/>
-        <v>12000</v>
+        <f t="shared" si="10"/>
+        <v>15000</v>
       </c>
       <c r="U84" t="s">
         <v>338</v>
@@ -8640,35 +8638,35 @@
         <v>0.2</v>
       </c>
       <c r="M85" s="25">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="N85" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O85" s="25">
         <f t="shared" si="13"/>
-        <v>0.2</v>
-      </c>
-      <c r="N85" s="25">
+        <v>0</v>
+      </c>
+      <c r="P85" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O85" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q85" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P85" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q85" s="25">
-        <f t="shared" si="10"/>
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="R85" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">Moderate </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S85" s="26">
         <v>30000</v>
       </c>
       <c r="T85" s="26">
-        <f t="shared" si="12"/>
-        <v>16500</v>
+        <f t="shared" si="10"/>
+        <v>19500</v>
       </c>
       <c r="U85" t="s">
         <v>288</v>
@@ -8713,35 +8711,35 @@
         <v>0.15</v>
       </c>
       <c r="M86" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="25">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="O86" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N86" s="25">
+      <c r="P86" s="25">
         <f t="shared" si="14"/>
-        <v>0.05</v>
-      </c>
-      <c r="O86" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q86" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P86" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q86" s="25">
-        <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="R86" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S86" s="26">
         <v>30000</v>
       </c>
       <c r="T86" s="26">
-        <f t="shared" si="12"/>
-        <v>6000</v>
+        <f t="shared" si="10"/>
+        <v>9000.0000000000018</v>
       </c>
       <c r="U86" t="s">
         <v>318</v>
@@ -8786,35 +8784,35 @@
         <v>0.1</v>
       </c>
       <c r="M87" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="25">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N87" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="P87" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O87" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q87" s="25">
         <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="P87" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q87" s="25">
-        <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="R87" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S87" s="26">
         <v>30000</v>
       </c>
       <c r="T87" s="26">
-        <f t="shared" si="12"/>
-        <v>6000</v>
+        <f t="shared" si="10"/>
+        <v>9000.0000000000018</v>
       </c>
       <c r="U87" t="s">
         <v>330</v>
@@ -8859,35 +8857,35 @@
         <v>0.2</v>
       </c>
       <c r="M88" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="25">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="O88" s="25">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N88" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="P88" s="25">
         <f t="shared" si="14"/>
-        <v>0.05</v>
-      </c>
-      <c r="O88" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q88" s="25">
         <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="P88" s="25">
-        <f t="shared" si="16"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q88" s="25">
-        <f t="shared" si="10"/>
-        <v>0.35</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R88" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">Weak </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S88" s="26">
         <v>20000</v>
       </c>
       <c r="T88" s="26">
-        <f t="shared" si="12"/>
-        <v>7000</v>
+        <f t="shared" si="10"/>
+        <v>11000</v>
       </c>
       <c r="U88" t="s">
         <v>223</v>
@@ -8932,35 +8930,35 @@
         <v>0.15</v>
       </c>
       <c r="M89" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N89" s="25">
+      <c r="P89" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q89" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q89" s="25">
-        <f t="shared" si="10"/>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="R89" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S89" s="26">
         <v>20000</v>
       </c>
       <c r="T89" s="26">
-        <f t="shared" si="12"/>
-        <v>3000</v>
+        <f t="shared" si="10"/>
+        <v>5000</v>
       </c>
       <c r="U89" t="s">
         <v>247</v>
@@ -9005,35 +9003,35 @@
         <v>0.2</v>
       </c>
       <c r="M90" s="25">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="N90" s="25">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="O90" s="25">
         <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N90" s="25">
+        <v>0</v>
+      </c>
+      <c r="P90" s="25">
         <f t="shared" si="14"/>
-        <v>0.2</v>
-      </c>
-      <c r="O90" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q90" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P90" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q90" s="25">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R90" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S90" s="26">
         <v>20000</v>
       </c>
       <c r="T90" s="26">
-        <f t="shared" si="12"/>
-        <v>10000</v>
+        <f t="shared" si="10"/>
+        <v>12000</v>
       </c>
       <c r="U90" t="s">
         <v>296</v>
@@ -9078,35 +9076,35 @@
         <v>0.15</v>
       </c>
       <c r="M91" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N91" s="25">
+      <c r="P91" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O91" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q91" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P91" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q91" s="25">
-        <f t="shared" si="10"/>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="R91" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S91" s="26">
         <v>20000</v>
       </c>
       <c r="T91" s="26">
-        <f t="shared" si="12"/>
-        <v>3000</v>
+        <f t="shared" si="10"/>
+        <v>5000</v>
       </c>
       <c r="U91" t="s">
         <v>317</v>
@@ -9151,35 +9149,35 @@
         <v>0.2</v>
       </c>
       <c r="M92" s="25">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="N92" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O92" s="25">
         <f t="shared" si="13"/>
-        <v>0.15</v>
-      </c>
-      <c r="N92" s="25">
+        <v>0</v>
+      </c>
+      <c r="P92" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O92" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q92" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P92" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q92" s="25">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R92" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S92" s="26">
         <v>20000</v>
       </c>
       <c r="T92" s="26">
-        <f t="shared" si="12"/>
-        <v>10000</v>
+        <f t="shared" si="10"/>
+        <v>12000</v>
       </c>
       <c r="U92" t="s">
         <v>334</v>
@@ -9224,35 +9222,35 @@
         <v>0.15</v>
       </c>
       <c r="M93" s="25">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="N93" s="25">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="O93" s="25">
         <f t="shared" si="13"/>
-        <v>0.2</v>
-      </c>
-      <c r="N93" s="25">
+        <v>0</v>
+      </c>
+      <c r="P93" s="25">
         <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
-      <c r="O93" s="25">
+      <c r="Q93" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P93" s="25">
-        <f t="shared" si="16"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q93" s="25">
-        <f t="shared" si="10"/>
-        <v>0.55000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="R93" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">Moderate </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S93" s="26">
         <v>10000</v>
       </c>
       <c r="T93" s="26">
-        <f t="shared" si="12"/>
-        <v>5500</v>
+        <f t="shared" si="10"/>
+        <v>7500</v>
       </c>
       <c r="U93" t="s">
         <v>213</v>
@@ -9297,35 +9295,35 @@
         <v>0.15</v>
       </c>
       <c r="M94" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="25">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="O94" s="25">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N94" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="P94" s="25">
         <f t="shared" si="14"/>
-        <v>0.05</v>
-      </c>
-      <c r="O94" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q94" s="25">
         <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="P94" s="25">
-        <f t="shared" si="16"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q94" s="25">
-        <f t="shared" si="10"/>
-        <v>0.30000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="R94" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">Weak </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S94" s="26">
         <v>10000</v>
       </c>
       <c r="T94" s="26">
-        <f t="shared" si="12"/>
-        <v>3000.0000000000005</v>
+        <f t="shared" si="10"/>
+        <v>5000</v>
       </c>
       <c r="U94" t="s">
         <v>231</v>
@@ -9370,35 +9368,35 @@
         <v>0.15</v>
       </c>
       <c r="M95" s="25">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="N95" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O95" s="25">
         <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N95" s="25">
+        <v>0</v>
+      </c>
+      <c r="P95" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O95" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q95" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P95" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q95" s="25">
-        <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R95" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">Weak </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S95" s="26">
         <v>10000</v>
       </c>
       <c r="T95" s="26">
-        <f t="shared" si="12"/>
-        <v>4000</v>
+        <f t="shared" si="10"/>
+        <v>5000</v>
       </c>
       <c r="U95" t="s">
         <v>274</v>
@@ -9443,34 +9441,34 @@
         <v>0.15</v>
       </c>
       <c r="M96" s="25">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="N96" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O96" s="25">
         <f t="shared" si="13"/>
-        <v>0.15</v>
-      </c>
-      <c r="N96" s="25">
+        <v>0</v>
+      </c>
+      <c r="P96" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O96" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P96" s="25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="25">
-        <f t="shared" si="10"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R96" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S96" s="26">
         <v>10000</v>
       </c>
       <c r="T96" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4500</v>
       </c>
       <c r="U96" t="s">
@@ -9516,35 +9514,35 @@
         <v>0.1</v>
       </c>
       <c r="M97" s="25">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="N97" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O97" s="25">
         <f t="shared" si="13"/>
-        <v>0.15</v>
-      </c>
-      <c r="N97" s="25">
+        <v>0</v>
+      </c>
+      <c r="P97" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O97" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q97" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P97" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q97" s="25">
-        <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R97" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">Weak </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S97" s="26">
         <v>10000</v>
       </c>
       <c r="T97" s="26">
-        <f t="shared" si="12"/>
-        <v>4000</v>
+        <f t="shared" si="10"/>
+        <v>5000</v>
       </c>
       <c r="U97" t="s">
         <v>276</v>
@@ -9589,35 +9587,35 @@
         <v>0.15</v>
       </c>
       <c r="M98" s="25">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="N98" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O98" s="25">
         <f t="shared" si="13"/>
-        <v>0.2</v>
-      </c>
-      <c r="N98" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="P98" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O98" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q98" s="25">
         <f t="shared" si="15"/>
-        <v>0.15</v>
-      </c>
-      <c r="P98" s="25">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q98" s="25">
-        <f t="shared" si="10"/>
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="R98" s="26" t="str">
-        <f t="shared" ref="R98:R101" si="17">IF(Q98&gt;60%,"Strong ",IF(Q98&gt;40%,"Moderate ",IF(Q98&lt;40.1%,"Weak ")))</f>
+        <f t="shared" ref="R98:R101" si="16">IF(Q98&gt;60%,"Strong ",IF(Q98&gt;40%,"Moderate ",IF(Q98&lt;40.1%,"Weak ")))</f>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S98" s="26">
         <v>10000</v>
       </c>
       <c r="T98" s="26">
-        <f t="shared" ref="T98:T101" si="18">S98*Q98</f>
-        <v>6500</v>
+        <f t="shared" ref="T98:T101" si="17">S98*Q98</f>
+        <v>7500</v>
       </c>
       <c r="U98" t="s">
         <v>282</v>
@@ -9662,35 +9660,35 @@
         <v>0.15</v>
       </c>
       <c r="M99" s="25">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="N99" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O99" s="25">
         <f t="shared" si="13"/>
-        <v>0.2</v>
-      </c>
-      <c r="N99" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="P99" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O99" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q99" s="25">
         <f t="shared" si="15"/>
-        <v>0.15</v>
-      </c>
-      <c r="P99" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="R99" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q99" s="25">
-        <f t="shared" si="10"/>
-        <v>0.65</v>
-      </c>
-      <c r="R99" s="26" t="str">
-        <f t="shared" si="17"/>
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S99" s="26">
         <v>10000</v>
       </c>
       <c r="T99" s="26">
-        <f t="shared" si="18"/>
-        <v>6500</v>
+        <f t="shared" si="17"/>
+        <v>7500</v>
       </c>
       <c r="U99" t="s">
         <v>298</v>
@@ -9735,35 +9733,35 @@
         <v>0.15</v>
       </c>
       <c r="M100" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="25">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="O100" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N100" s="25">
+      <c r="P100" s="25">
         <f t="shared" si="14"/>
-        <v>0.05</v>
-      </c>
-      <c r="O100" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q100" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P100" s="25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R100" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q100" s="25">
-        <f t="shared" si="10"/>
-        <v>0.2</v>
-      </c>
-      <c r="R100" s="26" t="str">
-        <f t="shared" si="17"/>
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S100" s="26">
         <v>10000</v>
       </c>
       <c r="T100" s="26">
-        <f t="shared" si="18"/>
-        <v>2000</v>
+        <f t="shared" si="17"/>
+        <v>3000.0000000000005</v>
       </c>
       <c r="U100" t="s">
         <v>302</v>
@@ -9808,35 +9806,35 @@
         <v>0.1</v>
       </c>
       <c r="M101" s="25">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="N101" s="25">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="O101" s="25">
         <f t="shared" si="13"/>
-        <v>0.2</v>
-      </c>
-      <c r="N101" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="P101" s="25">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="O101" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Q101" s="25">
         <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="P101" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="R101" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q101" s="25">
-        <f t="shared" si="10"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R101" s="26" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">Moderate </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S101" s="26">
         <v>10000</v>
       </c>
       <c r="T101" s="26">
-        <f t="shared" si="18"/>
-        <v>5500</v>
+        <f t="shared" si="17"/>
+        <v>6500</v>
       </c>
       <c r="U101" t="s">
         <v>315</v>
@@ -10067,7 +10065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CCB141-003B-9A4C-9534-239470579EC3}">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Mews VP RevOps Case Study 7.25.xlsx
+++ b/Mews VP RevOps Case Study 7.25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB90044D-8AF7-7340-8CBC-4017A2777EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9280A6-AADD-5144-ABEE-13069FBD6EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="1" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="3" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast Model A" sheetId="11" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="383">
   <si>
     <t>Case Study Prompt</t>
   </si>
@@ -925,9 +925,6 @@
     <t>Enjoy beautiful sunsets from this cozy inn, offering comfortable accommodations and a relaxing atmosphere. Guests can unwind by the pool, dine on the terrace, and enjoy scenic views. Ideal for a peaceful getaway.</t>
   </si>
   <si>
-    <t>The Grand Resort</t>
-  </si>
-  <si>
     <t>A grand resort offering luxurious amenities and stunning views. Enjoy spacious rooms, a spa, and gourmet dining. Ideal for a memorable vacation.</t>
   </si>
   <si>
@@ -1283,7 +1280,7 @@
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,6 +1335,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1424,7 +1428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1544,6 +1548,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1917,7 +1922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8240B7C1-4149-E040-AA41-4A5AD60624FA}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1959,19 +1966,19 @@
       </c>
       <c r="N1" s="35"/>
       <c r="P1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" s="37">
         <v>0</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E2" s="39">
         <v>0</v>
@@ -1985,7 +1992,7 @@
       </c>
       <c r="I2" s="51"/>
       <c r="J2" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K2" s="43">
         <v>0</v>
@@ -2000,14 +2007,14 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" s="37">
         <v>0.1</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E3" s="39">
         <v>0.1</v>
@@ -2021,14 +2028,14 @@
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K3" s="43">
         <v>0.1</v>
       </c>
       <c r="L3" s="51"/>
       <c r="M3" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N3" s="29">
         <v>0.05</v>
@@ -2036,14 +2043,14 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B4" s="37">
         <v>0.15</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E4" s="39">
         <v>0.15</v>
@@ -2057,14 +2064,14 @@
       </c>
       <c r="I4" s="51"/>
       <c r="J4" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K4" s="43">
         <v>0.15</v>
       </c>
       <c r="L4" s="51"/>
       <c r="M4" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N4" s="29">
         <v>0.1</v>
@@ -2072,14 +2079,14 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B5" s="37">
         <v>0.2</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E5" s="39">
         <v>0.2</v>
@@ -2093,14 +2100,14 @@
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K5" s="43">
         <v>0.2</v>
       </c>
       <c r="L5" s="51"/>
       <c r="M5" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N5" s="29">
         <v>0.2</v>
@@ -2143,10 +2150,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2175,15 +2182,15 @@
         <v>55000</v>
       </c>
       <c r="K8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C9">
         <v>3.5</v>
@@ -2212,15 +2219,15 @@
         <v>65000</v>
       </c>
       <c r="K9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C10">
         <v>8.5</v>
@@ -2254,10 +2261,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2286,7 +2293,7 @@
         <v>90000</v>
       </c>
       <c r="K11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA162ADF-BF2B-DD4D-BB4B-51A2824293D5}">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2483,13 +2492,13 @@
         <v>210</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>93</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>206</v>
@@ -2510,34 +2519,34 @@
         <v>204</v>
       </c>
       <c r="L1" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="O1" s="24" t="s">
-        <v>353</v>
-      </c>
       <c r="P1" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q1" s="24" t="s">
         <v>200</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S1" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="T1" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="T1" s="24" t="s">
-        <v>373</v>
-      </c>
       <c r="U1" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -2545,7 +2554,7 @@
         <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>41</v>
@@ -2618,7 +2627,7 @@
         <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>41</v>
@@ -2688,10 +2697,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>70</v>
@@ -2756,15 +2765,15 @@
         <v>70000</v>
       </c>
       <c r="U4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>41</v>
@@ -2829,7 +2838,7 @@
         <v>50000</v>
       </c>
       <c r="U5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -2837,7 +2846,7 @@
         <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>41</v>
@@ -2907,10 +2916,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>70</v>
@@ -2975,15 +2984,15 @@
         <v>35000</v>
       </c>
       <c r="U7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>70</v>
@@ -3048,15 +3057,15 @@
         <v>55000.000000000007</v>
       </c>
       <c r="U8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>41</v>
@@ -3121,7 +3130,7 @@
         <v>44999.999999999993</v>
       </c>
       <c r="U9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -3129,7 +3138,7 @@
         <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>41</v>
@@ -3202,7 +3211,7 @@
         <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>41</v>
@@ -3272,10 +3281,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>70</v>
@@ -3340,15 +3349,15 @@
         <v>48750</v>
       </c>
       <c r="U12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>41</v>
@@ -3413,7 +3422,7 @@
         <v>22500.000000000004</v>
       </c>
       <c r="U13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -3421,7 +3430,7 @@
         <v>258</v>
       </c>
       <c r="B14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>41</v>
@@ -3491,10 +3500,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>70</v>
@@ -3559,15 +3568,15 @@
         <v>30000</v>
       </c>
       <c r="U15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>70</v>
@@ -3632,15 +3641,15 @@
         <v>22500.000000000004</v>
       </c>
       <c r="U16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>70</v>
@@ -3705,15 +3714,15 @@
         <v>41250</v>
       </c>
       <c r="U17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>41</v>
@@ -3778,15 +3787,15 @@
         <v>41250</v>
       </c>
       <c r="U18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>70</v>
@@ -3851,15 +3860,15 @@
         <v>63750</v>
       </c>
       <c r="U19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>70</v>
@@ -3917,22 +3926,22 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S20" s="26">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="T20" s="26">
         <f t="shared" si="6"/>
-        <v>48750</v>
+        <v>65000</v>
       </c>
       <c r="U20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>70</v>
@@ -3997,7 +4006,7 @@
         <v>45000</v>
       </c>
       <c r="U21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -4005,7 +4014,7 @@
         <v>238</v>
       </c>
       <c r="B22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>41</v>
@@ -4078,7 +4087,7 @@
         <v>262</v>
       </c>
       <c r="B23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>41</v>
@@ -4148,10 +4157,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>70</v>
@@ -4216,15 +4225,15 @@
         <v>37500</v>
       </c>
       <c r="U24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>70</v>
@@ -4289,15 +4298,15 @@
         <v>68749.999999999985</v>
       </c>
       <c r="U25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>41</v>
@@ -4362,15 +4371,15 @@
         <v>56249.999999999993</v>
       </c>
       <c r="U26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>70</v>
@@ -4435,15 +4444,15 @@
         <v>81250</v>
       </c>
       <c r="U27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>41</v>
@@ -4508,15 +4517,15 @@
         <v>25000</v>
       </c>
       <c r="U28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>70</v>
@@ -4581,15 +4590,15 @@
         <v>50000</v>
       </c>
       <c r="U29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>41</v>
@@ -4654,15 +4663,15 @@
         <v>68750</v>
       </c>
       <c r="U30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>41</v>
@@ -4727,15 +4736,15 @@
         <v>43750</v>
       </c>
       <c r="U31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>41</v>
@@ -4793,11 +4802,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S32" s="26">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="T32" s="26">
         <f t="shared" si="6"/>
-        <v>93750</v>
+        <v>75000</v>
       </c>
       <c r="U32" t="s">
         <v>211</v>
@@ -4805,10 +4814,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>70</v>
@@ -4873,15 +4882,15 @@
         <v>37500.000000000007</v>
       </c>
       <c r="U33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>70</v>
@@ -4946,15 +4955,15 @@
         <v>37500.000000000007</v>
       </c>
       <c r="U34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>70</v>
@@ -5024,10 +5033,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>41</v>
@@ -5092,7 +5101,7 @@
         <v>53999.999999999993</v>
       </c>
       <c r="U36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -5100,7 +5109,7 @@
         <v>226</v>
       </c>
       <c r="B37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>41</v>
@@ -5173,7 +5182,7 @@
         <v>256</v>
       </c>
       <c r="B38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>41</v>
@@ -5243,10 +5252,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>41</v>
@@ -5261,35 +5270,35 @@
         <v>0.85</v>
       </c>
       <c r="G39">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="25">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="I39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J39" s="46">
         <v>45888</v>
       </c>
-      <c r="K39">
-        <v>5</v>
+      <c r="K39" s="53">
+        <v>1</v>
       </c>
       <c r="L39" s="25">
         <f>IF(G39&gt;12,10%,IF(G39&gt;=6,15%,IF('Forecast Model A - Data'!G48&lt;=3,15%,20%)))</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="M39" s="25">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N39" s="25">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="O39" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P39" s="25">
         <f t="shared" si="4"/>
@@ -5297,29 +5306,29 @@
       </c>
       <c r="Q39" s="25">
         <f t="shared" si="5"/>
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="R39" s="26" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">Weak </v>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S39" s="26">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="T39" s="26">
         <f t="shared" si="8"/>
-        <v>44000</v>
+        <v>90000</v>
       </c>
       <c r="U39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>70</v>
@@ -5384,15 +5393,15 @@
         <v>44000</v>
       </c>
       <c r="U40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>41</v>
@@ -5457,15 +5466,15 @@
         <v>49499.999999999993</v>
       </c>
       <c r="U41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>70</v>
@@ -5530,15 +5539,15 @@
         <v>35000</v>
       </c>
       <c r="U42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>70</v>
@@ -5603,15 +5612,15 @@
         <v>44999.999999999993</v>
       </c>
       <c r="U43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>70</v>
@@ -5676,15 +5685,15 @@
         <v>65000</v>
       </c>
       <c r="U44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>41</v>
@@ -5749,15 +5758,15 @@
         <v>55000.000000000007</v>
       </c>
       <c r="U45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>41</v>
@@ -5822,7 +5831,7 @@
         <v>65000</v>
       </c>
       <c r="U46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -5830,7 +5839,7 @@
         <v>218</v>
       </c>
       <c r="B47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>41</v>
@@ -5903,7 +5912,7 @@
         <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>41</v>
@@ -5976,7 +5985,7 @@
         <v>244</v>
       </c>
       <c r="B49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>41</v>
@@ -6049,7 +6058,7 @@
         <v>248</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>41</v>
@@ -6122,7 +6131,7 @@
         <v>252</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>41</v>
@@ -6195,7 +6204,7 @@
         <v>260</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>41</v>
@@ -6265,10 +6274,10 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>70</v>
@@ -6333,15 +6342,15 @@
         <v>24000.000000000004</v>
       </c>
       <c r="U53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>70</v>
@@ -6411,10 +6420,10 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>41</v>
@@ -6479,15 +6488,15 @@
         <v>40000</v>
       </c>
       <c r="U55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>41</v>
@@ -6552,7 +6561,7 @@
         <v>36000.000000000007</v>
       </c>
       <c r="U56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -6560,7 +6569,7 @@
         <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>41</v>
@@ -6633,7 +6642,7 @@
         <v>250</v>
       </c>
       <c r="B58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>41</v>
@@ -6706,7 +6715,7 @@
         <v>254</v>
       </c>
       <c r="B59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>41</v>
@@ -6779,7 +6788,7 @@
         <v>264</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>41</v>
@@ -6849,10 +6858,10 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>70</v>
@@ -6910,22 +6919,22 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S61" s="26">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="T61" s="26">
         <f t="shared" si="8"/>
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="U61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>70</v>
@@ -6990,15 +6999,15 @@
         <v>49000.000000000007</v>
       </c>
       <c r="U62" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>70</v>
@@ -7063,7 +7072,7 @@
         <v>38499.999999999993</v>
       </c>
       <c r="U63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -7071,7 +7080,7 @@
         <v>220</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>41</v>
@@ -7141,10 +7150,10 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>70</v>
@@ -7214,10 +7223,10 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>70</v>
@@ -7282,15 +7291,15 @@
         <v>21000</v>
       </c>
       <c r="U66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>70</v>
@@ -7355,7 +7364,7 @@
         <v>42000.000000000007</v>
       </c>
       <c r="U67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -7363,7 +7372,7 @@
         <v>240</v>
       </c>
       <c r="B68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>41</v>
@@ -7436,7 +7445,7 @@
         <v>246</v>
       </c>
       <c r="B69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>41</v>
@@ -7506,10 +7515,10 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B70" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>70</v>
@@ -7574,15 +7583,15 @@
         <v>35000</v>
       </c>
       <c r="U70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>70</v>
@@ -7647,15 +7656,15 @@
         <v>7500</v>
       </c>
       <c r="U71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B72" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>70</v>
@@ -7720,7 +7729,7 @@
         <v>35000</v>
       </c>
       <c r="U72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -7728,7 +7737,7 @@
         <v>252</v>
       </c>
       <c r="B73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>70</v>
@@ -7793,7 +7802,7 @@
         <v>20000</v>
       </c>
       <c r="U73" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -7801,7 +7810,7 @@
         <v>234</v>
       </c>
       <c r="B74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>41</v>
@@ -7871,10 +7880,10 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>70</v>
@@ -7939,15 +7948,15 @@
         <v>28000</v>
       </c>
       <c r="U75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>70</v>
@@ -8012,15 +8021,15 @@
         <v>16000</v>
       </c>
       <c r="U76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>70</v>
@@ -8085,15 +8094,15 @@
         <v>12000</v>
       </c>
       <c r="U77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B78" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>70</v>
@@ -8158,15 +8167,15 @@
         <v>6000</v>
       </c>
       <c r="U78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>41</v>
@@ -8231,15 +8240,15 @@
         <v>21999.999999999996</v>
       </c>
       <c r="U79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>41</v>
@@ -8304,7 +8313,7 @@
         <v>30000.000000000004</v>
       </c>
       <c r="U80" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
@@ -8312,7 +8321,7 @@
         <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>41</v>
@@ -8382,10 +8391,10 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>70</v>
@@ -8450,15 +8459,15 @@
         <v>12000</v>
       </c>
       <c r="U82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>70</v>
@@ -8523,15 +8532,15 @@
         <v>7500</v>
       </c>
       <c r="U83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>70</v>
@@ -8596,15 +8605,15 @@
         <v>15000</v>
       </c>
       <c r="U84" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>70</v>
@@ -8669,7 +8678,7 @@
         <v>19500</v>
       </c>
       <c r="U85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -8677,7 +8686,7 @@
         <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>41</v>
@@ -8742,15 +8751,15 @@
         <v>9000.0000000000018</v>
       </c>
       <c r="U86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>41</v>
@@ -8815,7 +8824,7 @@
         <v>9000.0000000000018</v>
       </c>
       <c r="U87" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -8823,7 +8832,7 @@
         <v>222</v>
       </c>
       <c r="B88" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>41</v>
@@ -8893,10 +8902,10 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>70</v>
@@ -8966,10 +8975,10 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>70</v>
@@ -9034,15 +9043,15 @@
         <v>12000</v>
       </c>
       <c r="U90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B91" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>41</v>
@@ -9107,15 +9116,15 @@
         <v>5000</v>
       </c>
       <c r="U91" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B92" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>41</v>
@@ -9180,7 +9189,7 @@
         <v>12000</v>
       </c>
       <c r="U92" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -9188,7 +9197,7 @@
         <v>212</v>
       </c>
       <c r="B93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>41</v>
@@ -9261,7 +9270,7 @@
         <v>230</v>
       </c>
       <c r="B94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>41</v>
@@ -9331,10 +9340,10 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B95" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>70</v>
@@ -9399,15 +9408,15 @@
         <v>5000</v>
       </c>
       <c r="U95" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B96" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>70</v>
@@ -9472,15 +9481,15 @@
         <v>4500</v>
       </c>
       <c r="U96" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>70</v>
@@ -9545,15 +9554,15 @@
         <v>5000</v>
       </c>
       <c r="U97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>70</v>
@@ -9618,15 +9627,15 @@
         <v>7500</v>
       </c>
       <c r="U98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>41</v>
@@ -9691,15 +9700,15 @@
         <v>7500</v>
       </c>
       <c r="U99" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B100" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>41</v>
@@ -9764,15 +9773,15 @@
         <v>3000.0000000000005</v>
       </c>
       <c r="U100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B101" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>41</v>
@@ -9837,7 +9846,7 @@
         <v>6500</v>
       </c>
       <c r="U101" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -9909,19 +9918,19 @@
       </c>
       <c r="N1" s="35"/>
       <c r="P1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" s="47">
         <v>0</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E2" s="39">
         <v>0.1</v>
@@ -9935,7 +9944,7 @@
       </c>
       <c r="I2" s="51"/>
       <c r="J2" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K2" s="43">
         <v>0</v>
@@ -9950,14 +9959,14 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" s="47">
         <v>0</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E3" s="39">
         <v>0.15</v>
@@ -9971,14 +9980,14 @@
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K3" s="43">
         <v>0</v>
       </c>
       <c r="L3" s="51"/>
       <c r="M3" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N3" s="29">
         <v>0</v>
@@ -9986,14 +9995,14 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B4" s="47">
         <v>0.05</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E4" s="39">
         <v>0.25</v>
@@ -10007,14 +10016,14 @@
       </c>
       <c r="I4" s="51"/>
       <c r="J4" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K4" s="43">
         <v>0.05</v>
       </c>
       <c r="L4" s="51"/>
       <c r="M4" s="35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N4" s="29">
         <v>0.05</v>
@@ -10022,14 +10031,14 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B5" s="47">
         <v>0.1</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E5" s="39">
         <v>0.35</v>
@@ -10043,14 +10052,14 @@
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K5" s="43">
         <v>0.1</v>
       </c>
       <c r="L5" s="51"/>
       <c r="M5" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N5" s="29">
         <v>0.1</v>
@@ -10065,9 +10074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CCB141-003B-9A4C-9534-239470579EC3}">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10102,13 +10109,13 @@
         <v>210</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>93</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>206</v>
@@ -10129,34 +10136,34 @@
         <v>204</v>
       </c>
       <c r="L1" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="O1" s="24" t="s">
-        <v>353</v>
-      </c>
       <c r="P1" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q1" s="24" t="s">
         <v>200</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S1" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="T1" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="T1" s="24" t="s">
-        <v>373</v>
-      </c>
       <c r="U1" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -10164,7 +10171,7 @@
         <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>41</v>
@@ -10218,7 +10225,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S2" s="26">
         <v>100000</v>
@@ -10236,7 +10243,7 @@
         <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>41</v>
@@ -10290,7 +10297,7 @@
         <v>0.6</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S3" s="26">
         <v>100000</v>
@@ -10305,10 +10312,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>70</v>
@@ -10362,7 +10369,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S4" s="26">
         <v>100000</v>
@@ -10372,15 +10379,15 @@
         <v>60000.000000000007</v>
       </c>
       <c r="U4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>41</v>
@@ -10434,7 +10441,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="R5" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S5" s="26">
         <v>100000</v>
@@ -10444,7 +10451,7 @@
         <v>55000.000000000007</v>
       </c>
       <c r="U5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -10452,7 +10459,7 @@
         <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>41</v>
@@ -10506,7 +10513,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="R6" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S6" s="26">
         <v>100000</v>
@@ -10521,10 +10528,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>70</v>
@@ -10578,7 +10585,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="R7" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S7" s="26">
         <v>100000</v>
@@ -10588,15 +10595,15 @@
         <v>40000</v>
       </c>
       <c r="U7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>70</v>
@@ -10650,7 +10657,7 @@
         <v>0.65</v>
       </c>
       <c r="R8" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S8" s="26">
         <v>100000</v>
@@ -10660,15 +10667,15 @@
         <v>65000</v>
       </c>
       <c r="U8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>41</v>
@@ -10722,7 +10729,7 @@
         <v>0.5</v>
       </c>
       <c r="R9" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S9" s="26">
         <v>100000</v>
@@ -10732,7 +10739,7 @@
         <v>50000</v>
       </c>
       <c r="U9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -10740,7 +10747,7 @@
         <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>41</v>
@@ -10794,7 +10801,7 @@
         <v>0.7</v>
       </c>
       <c r="R10" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S10" s="26">
         <v>100000</v>
@@ -10812,7 +10819,7 @@
         <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>41</v>
@@ -10866,7 +10873,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="R11" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S11" s="26">
         <v>100000</v>
@@ -10881,10 +10888,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>70</v>
@@ -10938,7 +10945,7 @@
         <v>0.75</v>
       </c>
       <c r="R12" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S12" s="26">
         <v>75000</v>
@@ -10948,15 +10955,15 @@
         <v>56250</v>
       </c>
       <c r="U12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>41</v>
@@ -11010,7 +11017,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="R13" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S13" s="26">
         <v>75000</v>
@@ -11020,7 +11027,7 @@
         <v>26250.000000000004</v>
       </c>
       <c r="U13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -11028,7 +11035,7 @@
         <v>258</v>
       </c>
       <c r="B14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>41</v>
@@ -11082,7 +11089,7 @@
         <v>0.25</v>
       </c>
       <c r="R14" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S14" s="26">
         <v>75000</v>
@@ -11097,10 +11104,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>70</v>
@@ -11154,7 +11161,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="R15" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S15" s="26">
         <v>75000</v>
@@ -11164,15 +11171,15 @@
         <v>29999.999999999996</v>
       </c>
       <c r="U15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>70</v>
@@ -11226,7 +11233,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="R16" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S16" s="26">
         <v>75000</v>
@@ -11236,15 +11243,15 @@
         <v>26250.000000000004</v>
       </c>
       <c r="U16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>70</v>
@@ -11298,7 +11305,7 @@
         <v>0.65</v>
       </c>
       <c r="R17" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S17" s="26">
         <v>75000</v>
@@ -11308,15 +11315,15 @@
         <v>48750</v>
       </c>
       <c r="U17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>41</v>
@@ -11370,7 +11377,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="R18" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S18" s="26">
         <v>75000</v>
@@ -11380,15 +11387,15 @@
         <v>45000.000000000007</v>
       </c>
       <c r="U18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>70</v>
@@ -11442,7 +11449,7 @@
         <v>0.9</v>
       </c>
       <c r="R19" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S19" s="26">
         <v>75000</v>
@@ -11452,15 +11459,15 @@
         <v>67500</v>
       </c>
       <c r="U19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>70</v>
@@ -11514,7 +11521,7 @@
         <v>0.7</v>
       </c>
       <c r="R20" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S20" s="26">
         <v>75000</v>
@@ -11524,15 +11531,15 @@
         <v>52500</v>
       </c>
       <c r="U20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>70</v>
@@ -11586,7 +11593,7 @@
         <v>0.65</v>
       </c>
       <c r="R21" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S21" s="26">
         <v>75000</v>
@@ -11596,7 +11603,7 @@
         <v>48750</v>
       </c>
       <c r="U21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -11604,7 +11611,7 @@
         <v>238</v>
       </c>
       <c r="B22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>41</v>
@@ -11658,7 +11665,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="R22" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S22" s="26">
         <v>75000</v>
@@ -11676,7 +11683,7 @@
         <v>262</v>
       </c>
       <c r="B23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>41</v>
@@ -11730,7 +11737,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="R23" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S23" s="26">
         <v>75000</v>
@@ -11745,10 +11752,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>70</v>
@@ -11802,7 +11809,7 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="R24" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S24" s="26">
         <v>75000</v>
@@ -11812,15 +11819,15 @@
         <v>48749.999999999993</v>
       </c>
       <c r="U24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>70</v>
@@ -11874,7 +11881,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="R25" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S25" s="26">
         <v>125000</v>
@@ -11884,15 +11891,15 @@
         <v>75000.000000000015</v>
       </c>
       <c r="U25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>41</v>
@@ -11946,7 +11953,7 @@
         <v>0.35</v>
       </c>
       <c r="R26" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S26" s="26">
         <v>125000</v>
@@ -11956,15 +11963,15 @@
         <v>43750</v>
       </c>
       <c r="U26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>70</v>
@@ -12018,7 +12025,7 @@
         <v>0.65</v>
       </c>
       <c r="R27" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S27" s="26">
         <v>125000</v>
@@ -12028,15 +12035,15 @@
         <v>81250</v>
       </c>
       <c r="U27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>41</v>
@@ -12090,7 +12097,7 @@
         <v>0.25</v>
       </c>
       <c r="R28" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S28" s="26">
         <v>125000</v>
@@ -12100,15 +12107,15 @@
         <v>31250</v>
       </c>
       <c r="U28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>70</v>
@@ -12162,7 +12169,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="R29" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S29" s="26">
         <v>125000</v>
@@ -12172,15 +12179,15 @@
         <v>49999.999999999993</v>
       </c>
       <c r="U29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>41</v>
@@ -12234,7 +12241,7 @@
         <v>0.65</v>
       </c>
       <c r="R30" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S30" s="26">
         <v>125000</v>
@@ -12244,15 +12251,15 @@
         <v>81250</v>
       </c>
       <c r="U30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>41</v>
@@ -12306,7 +12313,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="R31" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S31" s="26">
         <v>125000</v>
@@ -12316,15 +12323,15 @@
         <v>49999.999999999993</v>
       </c>
       <c r="U31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>41</v>
@@ -12378,7 +12385,7 @@
         <v>0.65</v>
       </c>
       <c r="R32" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S32" s="26">
         <v>125000</v>
@@ -12393,10 +12400,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>70</v>
@@ -12450,7 +12457,7 @@
         <v>0.35</v>
       </c>
       <c r="R33" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S33" s="26">
         <v>125000</v>
@@ -12460,15 +12467,15 @@
         <v>43750</v>
       </c>
       <c r="U33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>70</v>
@@ -12522,7 +12529,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="R34" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S34" s="26">
         <v>125000</v>
@@ -12532,15 +12539,15 @@
         <v>43750.000000000007</v>
       </c>
       <c r="U34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>70</v>
@@ -12594,7 +12601,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="R35" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S35" s="26">
         <v>125000</v>
@@ -12609,10 +12616,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>41</v>
@@ -12666,7 +12673,7 @@
         <v>0.4</v>
       </c>
       <c r="R36" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S36" s="26">
         <v>120000</v>
@@ -12676,7 +12683,7 @@
         <v>48000</v>
       </c>
       <c r="U36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -12684,7 +12691,7 @@
         <v>226</v>
       </c>
       <c r="B37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>41</v>
@@ -12738,7 +12745,7 @@
         <v>0.6</v>
       </c>
       <c r="R37" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S37" s="26">
         <v>110000</v>
@@ -12756,7 +12763,7 @@
         <v>256</v>
       </c>
       <c r="B38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>41</v>
@@ -12810,7 +12817,7 @@
         <v>0.65</v>
       </c>
       <c r="R38" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S38" s="26">
         <v>110000</v>
@@ -12825,10 +12832,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>41</v>
@@ -12843,13 +12850,13 @@
         <v>0.85</v>
       </c>
       <c r="G39">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="25">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="I39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J39" s="46">
         <v>45888</v>
@@ -12859,15 +12866,15 @@
       </c>
       <c r="L39" s="25">
         <f>IF(G39&gt;12,0%,IF(G39&gt;=6,5%,IF('Forecast Model A - Data'!G48&lt;=3,0%,10%)))</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="M39" s="25">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="N39" s="25">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="O39" s="25">
         <f t="shared" si="2"/>
@@ -12879,28 +12886,28 @@
       </c>
       <c r="Q39" s="25">
         <f t="shared" si="4"/>
-        <v>0.39999999999999997</v>
+        <v>0.85</v>
       </c>
       <c r="R39" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S39" s="26">
         <v>110000</v>
       </c>
       <c r="T39" s="26">
         <f t="shared" si="5"/>
-        <v>43999.999999999993</v>
+        <v>93500</v>
       </c>
       <c r="U39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>70</v>
@@ -12954,7 +12961,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="R40" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S40" s="26">
         <v>110000</v>
@@ -12964,15 +12971,15 @@
         <v>43999.999999999993</v>
       </c>
       <c r="U40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>41</v>
@@ -13026,7 +13033,7 @@
         <v>0.45</v>
       </c>
       <c r="R41" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S41" s="26">
         <v>110000</v>
@@ -13036,15 +13043,15 @@
         <v>49500</v>
       </c>
       <c r="U41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>70</v>
@@ -13098,7 +13105,7 @@
         <v>0.4</v>
       </c>
       <c r="R42" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S42" s="26">
         <v>100000</v>
@@ -13108,15 +13115,15 @@
         <v>40000</v>
       </c>
       <c r="U42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>70</v>
@@ -13170,7 +13177,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="R43" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S43" s="26">
         <v>100000</v>
@@ -13180,15 +13187,15 @@
         <v>55000.000000000007</v>
       </c>
       <c r="U43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>70</v>
@@ -13242,7 +13249,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="R44" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S44" s="26">
         <v>100000</v>
@@ -13252,15 +13259,15 @@
         <v>60000.000000000007</v>
       </c>
       <c r="U44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>41</v>
@@ -13314,7 +13321,7 @@
         <v>0.65</v>
       </c>
       <c r="R45" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S45" s="26">
         <v>100000</v>
@@ -13324,15 +13331,15 @@
         <v>65000</v>
       </c>
       <c r="U45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>41</v>
@@ -13386,7 +13393,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="R46" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S46" s="26">
         <v>100000</v>
@@ -13396,7 +13403,7 @@
         <v>60000.000000000007</v>
       </c>
       <c r="U46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -13404,7 +13411,7 @@
         <v>218</v>
       </c>
       <c r="B47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>41</v>
@@ -13458,7 +13465,7 @@
         <v>0.85</v>
       </c>
       <c r="R47" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S47" s="26">
         <v>90000</v>
@@ -13476,7 +13483,7 @@
         <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>41</v>
@@ -13530,7 +13537,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="R48" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S48" s="26">
         <v>90000</v>
@@ -13548,7 +13555,7 @@
         <v>244</v>
       </c>
       <c r="B49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>41</v>
@@ -13602,7 +13609,7 @@
         <v>0.45</v>
       </c>
       <c r="R49" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S49" s="26">
         <v>90000</v>
@@ -13620,7 +13627,7 @@
         <v>248</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>41</v>
@@ -13674,7 +13681,7 @@
         <v>0.45</v>
       </c>
       <c r="R50" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S50" s="26">
         <v>90000</v>
@@ -13692,7 +13699,7 @@
         <v>252</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>41</v>
@@ -13746,7 +13753,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="R51" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S51" s="26">
         <v>80000</v>
@@ -13764,7 +13771,7 @@
         <v>260</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>41</v>
@@ -13818,7 +13825,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="R52" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S52" s="26">
         <v>80000</v>
@@ -13833,10 +13840,10 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>70</v>
@@ -13890,7 +13897,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="R53" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S53" s="26">
         <v>80000</v>
@@ -13900,15 +13907,15 @@
         <v>28000.000000000004</v>
       </c>
       <c r="U53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>70</v>
@@ -13962,7 +13969,7 @@
         <v>0.45</v>
       </c>
       <c r="R54" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S54" s="26">
         <v>80000</v>
@@ -13977,10 +13984,10 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>41</v>
@@ -14034,7 +14041,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="R55" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S55" s="26">
         <v>80000</v>
@@ -14044,15 +14051,15 @@
         <v>44000</v>
       </c>
       <c r="U55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>41</v>
@@ -14106,7 +14113,7 @@
         <v>0.45</v>
       </c>
       <c r="R56" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S56" s="26">
         <v>80000</v>
@@ -14116,7 +14123,7 @@
         <v>36000</v>
       </c>
       <c r="U56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -14124,7 +14131,7 @@
         <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>41</v>
@@ -14178,7 +14185,7 @@
         <v>0.7</v>
       </c>
       <c r="R57" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S57" s="26">
         <v>70000</v>
@@ -14196,7 +14203,7 @@
         <v>250</v>
       </c>
       <c r="B58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>41</v>
@@ -14250,7 +14257,7 @@
         <v>0.45</v>
       </c>
       <c r="R58" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S58" s="26">
         <v>70000</v>
@@ -14268,7 +14275,7 @@
         <v>254</v>
       </c>
       <c r="B59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>41</v>
@@ -14322,7 +14329,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="R59" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S59" s="26">
         <v>70000</v>
@@ -14340,7 +14347,7 @@
         <v>264</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>41</v>
@@ -14394,7 +14401,7 @@
         <v>0.75</v>
       </c>
       <c r="R60" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S60" s="26">
         <v>70000</v>
@@ -14409,10 +14416,10 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>70</v>
@@ -14466,7 +14473,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="R61" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S61" s="26">
         <v>70000</v>
@@ -14476,15 +14483,15 @@
         <v>27999.999999999996</v>
       </c>
       <c r="U61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>70</v>
@@ -14538,7 +14545,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="R62" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S62" s="26">
         <v>70000</v>
@@ -14548,15 +14555,15 @@
         <v>42000.000000000007</v>
       </c>
       <c r="U62" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>70</v>
@@ -14610,7 +14617,7 @@
         <v>0.5</v>
       </c>
       <c r="R63" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S63" s="26">
         <v>70000</v>
@@ -14620,7 +14627,7 @@
         <v>35000</v>
       </c>
       <c r="U63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -14628,7 +14635,7 @@
         <v>220</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>41</v>
@@ -14682,7 +14689,7 @@
         <v>0.5</v>
       </c>
       <c r="R64" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S64" s="26">
         <v>60000</v>
@@ -14697,10 +14704,10 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>70</v>
@@ -14754,7 +14761,7 @@
         <v>0.7</v>
       </c>
       <c r="R65" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S65" s="26">
         <v>60000</v>
@@ -14769,10 +14776,10 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>70</v>
@@ -14826,7 +14833,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="R66" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S66" s="26">
         <v>60000</v>
@@ -14836,15 +14843,15 @@
         <v>21000.000000000004</v>
       </c>
       <c r="U66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>70</v>
@@ -14898,7 +14905,7 @@
         <v>0.75</v>
       </c>
       <c r="R67" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S67" s="26">
         <v>60000</v>
@@ -14908,7 +14915,7 @@
         <v>45000</v>
       </c>
       <c r="U67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -14916,7 +14923,7 @@
         <v>240</v>
       </c>
       <c r="B68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>41</v>
@@ -14970,7 +14977,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="R68" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S68" s="26">
         <v>50000</v>
@@ -14988,7 +14995,7 @@
         <v>246</v>
       </c>
       <c r="B69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>41</v>
@@ -15042,7 +15049,7 @@
         <v>0.3</v>
       </c>
       <c r="R69" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S69" s="26">
         <v>50000</v>
@@ -15057,10 +15064,10 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B70" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>70</v>
@@ -15114,7 +15121,7 @@
         <v>0.75</v>
       </c>
       <c r="R70" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S70" s="26">
         <v>50000</v>
@@ -15124,15 +15131,15 @@
         <v>37500</v>
       </c>
       <c r="U70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>70</v>
@@ -15186,7 +15193,7 @@
         <v>0.2</v>
       </c>
       <c r="R71" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S71" s="26">
         <v>50000</v>
@@ -15196,15 +15203,15 @@
         <v>10000</v>
       </c>
       <c r="U71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B72" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>70</v>
@@ -15258,7 +15265,7 @@
         <v>0.7</v>
       </c>
       <c r="R72" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S72" s="26">
         <v>50000</v>
@@ -15268,7 +15275,7 @@
         <v>35000</v>
       </c>
       <c r="U72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -15276,7 +15283,7 @@
         <v>252</v>
       </c>
       <c r="B73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>70</v>
@@ -15330,7 +15337,7 @@
         <v>0.35</v>
       </c>
       <c r="R73" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S73" s="26">
         <v>50000</v>
@@ -15340,7 +15347,7 @@
         <v>17500</v>
       </c>
       <c r="U73" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -15348,7 +15355,7 @@
         <v>234</v>
       </c>
       <c r="B74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>41</v>
@@ -15402,7 +15409,7 @@
         <v>0.6</v>
       </c>
       <c r="R74" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S74" s="26">
         <v>40000</v>
@@ -15417,10 +15424,10 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>70</v>
@@ -15474,7 +15481,7 @@
         <v>0.65000000000000013</v>
       </c>
       <c r="R75" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S75" s="26">
         <v>40000</v>
@@ -15484,15 +15491,15 @@
         <v>26000.000000000004</v>
       </c>
       <c r="U75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>70</v>
@@ -15546,7 +15553,7 @@
         <v>0.45</v>
       </c>
       <c r="R76" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S76" s="26">
         <v>40000</v>
@@ -15556,15 +15563,15 @@
         <v>18000</v>
       </c>
       <c r="U76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>70</v>
@@ -15618,7 +15625,7 @@
         <v>0.35</v>
       </c>
       <c r="R77" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S77" s="26">
         <v>40000</v>
@@ -15628,15 +15635,15 @@
         <v>14000</v>
       </c>
       <c r="U77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B78" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>70</v>
@@ -15690,7 +15697,7 @@
         <v>0.25</v>
       </c>
       <c r="R78" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S78" s="26">
         <v>40000</v>
@@ -15700,15 +15707,15 @@
         <v>10000</v>
       </c>
       <c r="U78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>41</v>
@@ -15762,7 +15769,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="R79" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S79" s="26">
         <v>40000</v>
@@ -15772,15 +15779,15 @@
         <v>22000</v>
       </c>
       <c r="U79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>41</v>
@@ -15834,7 +15841,7 @@
         <v>0.65</v>
       </c>
       <c r="R80" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S80" s="26">
         <v>40000</v>
@@ -15844,7 +15851,7 @@
         <v>26000</v>
       </c>
       <c r="U80" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
@@ -15852,7 +15859,7 @@
         <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>41</v>
@@ -15906,7 +15913,7 @@
         <v>0.75</v>
       </c>
       <c r="R81" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S81" s="26">
         <v>30000</v>
@@ -15921,10 +15928,10 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>70</v>
@@ -15978,7 +15985,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="R82" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S82" s="26">
         <v>30000</v>
@@ -15988,15 +15995,15 @@
         <v>11999.999999999998</v>
       </c>
       <c r="U82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>70</v>
@@ -16050,7 +16057,7 @@
         <v>0.35</v>
       </c>
       <c r="R83" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S83" s="26">
         <v>30000</v>
@@ -16060,15 +16067,15 @@
         <v>10500</v>
       </c>
       <c r="U83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>70</v>
@@ -16122,7 +16129,7 @@
         <v>0.5</v>
       </c>
       <c r="R84" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S84" s="26">
         <v>30000</v>
@@ -16132,15 +16139,15 @@
         <v>15000</v>
       </c>
       <c r="U84" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>70</v>
@@ -16194,7 +16201,7 @@
         <v>0.75</v>
       </c>
       <c r="R85" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S85" s="26">
         <v>30000</v>
@@ -16204,7 +16211,7 @@
         <v>22500</v>
       </c>
       <c r="U85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -16212,7 +16219,7 @@
         <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>41</v>
@@ -16266,7 +16273,7 @@
         <v>0.3</v>
       </c>
       <c r="R86" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S86" s="26">
         <v>30000</v>
@@ -16276,15 +16283,15 @@
         <v>9000</v>
       </c>
       <c r="U86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>41</v>
@@ -16338,7 +16345,7 @@
         <v>0.25</v>
       </c>
       <c r="R87" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S87" s="26">
         <v>30000</v>
@@ -16348,7 +16355,7 @@
         <v>7500</v>
       </c>
       <c r="U87" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -16356,7 +16363,7 @@
         <v>222</v>
       </c>
       <c r="B88" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>41</v>
@@ -16410,7 +16417,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="R88" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S88" s="26">
         <v>20000</v>
@@ -16425,10 +16432,10 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>70</v>
@@ -16482,7 +16489,7 @@
         <v>0.3</v>
       </c>
       <c r="R89" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S89" s="26">
         <v>20000</v>
@@ -16497,10 +16504,10 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>70</v>
@@ -16554,7 +16561,7 @@
         <v>0.65</v>
       </c>
       <c r="R90" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S90" s="26">
         <v>20000</v>
@@ -16564,15 +16571,15 @@
         <v>13000</v>
       </c>
       <c r="U90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B91" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>41</v>
@@ -16626,7 +16633,7 @@
         <v>0.3</v>
       </c>
       <c r="R91" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S91" s="26">
         <v>20000</v>
@@ -16636,15 +16643,15 @@
         <v>6000</v>
       </c>
       <c r="U91" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B92" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>41</v>
@@ -16698,7 +16705,7 @@
         <v>0.65</v>
       </c>
       <c r="R92" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S92" s="26">
         <v>20000</v>
@@ -16708,7 +16715,7 @@
         <v>13000</v>
       </c>
       <c r="U92" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -16716,7 +16723,7 @@
         <v>212</v>
       </c>
       <c r="B93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>41</v>
@@ -16770,7 +16777,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="R93" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S93" s="26">
         <v>10000</v>
@@ -16788,7 +16795,7 @@
         <v>230</v>
       </c>
       <c r="B94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>41</v>
@@ -16842,7 +16849,7 @@
         <v>0.35</v>
       </c>
       <c r="R94" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S94" s="26">
         <v>10000</v>
@@ -16857,10 +16864,10 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B95" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>70</v>
@@ -16914,7 +16921,7 @@
         <v>0.45</v>
       </c>
       <c r="R95" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S95" s="26">
         <v>10000</v>
@@ -16924,15 +16931,15 @@
         <v>4500</v>
       </c>
       <c r="U95" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B96" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>70</v>
@@ -16986,7 +16993,7 @@
         <v>0.5</v>
       </c>
       <c r="R96" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S96" s="26">
         <v>10000</v>
@@ -16996,15 +17003,15 @@
         <v>5000</v>
       </c>
       <c r="U96" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>70</v>
@@ -17058,7 +17065,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="R97" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S97" s="26">
         <v>10000</v>
@@ -17068,15 +17075,15 @@
         <v>5500</v>
       </c>
       <c r="U97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>70</v>
@@ -17130,7 +17137,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="R98" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S98" s="26">
         <v>10000</v>
@@ -17140,15 +17147,15 @@
         <v>7000.0000000000009</v>
       </c>
       <c r="U98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>41</v>
@@ -17202,7 +17209,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="R99" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S99" s="26">
         <v>10000</v>
@@ -17212,15 +17219,15 @@
         <v>7000.0000000000009</v>
       </c>
       <c r="U99" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B100" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>41</v>
@@ -17274,7 +17281,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="R100" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S100" s="26">
         <v>10000</v>
@@ -17284,15 +17291,15 @@
         <v>3500.0000000000005</v>
       </c>
       <c r="U100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B101" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>41</v>
@@ -17346,7 +17353,7 @@
         <v>0.65</v>
       </c>
       <c r="R101" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S101" s="26">
         <v>10000</v>
@@ -17356,7 +17363,7 @@
         <v>6500</v>
       </c>
       <c r="U101" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
